--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{5AC6DF79-975A-436A-B293-9127365A3843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8C87D4F-F802-425C-948F-DEF4EF52F9FA}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{5AC6DF79-975A-436A-B293-9127365A3843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22139635-5AC5-4674-9111-0929BAB03FF9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="checkbox">Specifications!$C$39:$D$48,Specifications!$C$28:$D$37,Specifications!$C$7:$D$24</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$I$28:$I$37,Specifications!$M$28:$M$37,Specifications!$Q$28:$Q$37,Specifications!$U$28:$U$37,Specifications!$Y$28:$Y$37,Specifications!$Y$39:$Y$48,Specifications!$U$39:$U$48,Specifications!$Q$39:$Q$48,Specifications!$M$39:$M$48,Specifications!$I$39:$I$48,Specifications!$I$51:$I$61,Specifications!$M$51:$M$61,Specifications!$Q$51:$Q$61,Specifications!$U$51:$U$61,Specifications!$Y$51:$Y$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="83">
   <si>
     <t>Website</t>
   </si>
@@ -42,12 +46,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -208,18 +206,6 @@
   </si>
   <si>
     <t>picklist</t>
-  </si>
-  <si>
-    <t>custom 1</t>
-  </si>
-  <si>
-    <t>custom1__c</t>
-  </si>
-  <si>
-    <t>custom 2</t>
-  </si>
-  <si>
-    <t>custom2__c</t>
   </si>
   <si>
     <r>
@@ -279,9 +265,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Title of Template</t>
   </si>
   <si>
@@ -304,9 +287,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <r>
@@ -370,13 +350,7 @@
     </r>
   </si>
   <si>
-    <t>not needed</t>
-  </si>
-  <si>
-    <t>must be filled out</t>
-  </si>
-  <si>
-    <t>some other note</t>
+    <t>this is a note</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1768,7 +1742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1776,27 +1749,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1815,13 +1779,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,6 +1804,18 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -2672,10 +2657,10 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2689,14 +2674,14 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2707,7 +2692,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2722,99 +2707,99 @@
     </row>
     <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="43" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E4" s="44"/>
-      <c r="G4" s="113" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
+      <c r="G4" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="O4" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="S4" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="111"/>
-      <c r="U4" s="112"/>
-      <c r="W4" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="112"/>
+      <c r="K4" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="O4" s="136" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="S4" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="131"/>
+      <c r="U4" s="132"/>
+      <c r="W4" s="130" t="s">
+        <v>80</v>
+      </c>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="132"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="72"/>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
       <c r="E6" s="54" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L6" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="Q6" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="96" t="s">
-        <v>37</v>
-      </c>
       <c r="U6" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="96" t="s">
-        <v>37</v>
-      </c>
       <c r="Y6" s="97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2842,495 +2827,487 @@
     </row>
     <row r="8" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D8" s="67"/>
       <c r="E8" s="68"/>
       <c r="G8" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="69"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="82" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="69"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="82" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="O8" s="81"/>
       <c r="P8" s="69"/>
       <c r="Q8" s="82"/>
-      <c r="S8" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="T8" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="U8" s="101"/>
-      <c r="W8" s="100" t="s">
-        <v>5</v>
-      </c>
+      <c r="S8" s="109"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="111"/>
+      <c r="W8" s="100"/>
       <c r="X8" s="69"/>
-      <c r="Y8" s="101" t="s">
-        <v>4</v>
-      </c>
+      <c r="Y8" s="101"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>72</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="52"/>
       <c r="G9" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M9" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O9" s="83"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="84"/>
-      <c r="S9" s="102" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" s="103"/>
-      <c r="W9" s="104" t="s">
-        <v>6</v>
-      </c>
+      <c r="S9" s="112"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="114"/>
+      <c r="W9" s="103"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y9" s="102"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="29"/>
       <c r="E10" s="52"/>
       <c r="G10" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I10" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="M10" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O10" s="83"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="84"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="103"/>
-      <c r="W10" s="104" t="s">
-        <v>7</v>
-      </c>
+      <c r="S10" s="112"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="114"/>
+      <c r="W10" s="103"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="29"/>
       <c r="E11" s="52"/>
       <c r="G11" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I11" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="M11" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O11" s="83"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="84"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="103"/>
-      <c r="W11" s="104" t="s">
-        <v>8</v>
-      </c>
+      <c r="S11" s="112"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="114"/>
+      <c r="W11" s="103"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y11" s="102"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>92</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="52"/>
       <c r="G12" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="83"/>
       <c r="L12" s="5"/>
       <c r="M12" s="84"/>
       <c r="O12" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="Q12" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="104"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="103"/>
-      <c r="W12" s="104" t="s">
-        <v>9</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S12" s="112"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="114"/>
+      <c r="W12" s="103"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y12" s="102"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="52"/>
       <c r="G13" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="80" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" s="80" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O13" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Q13" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="104"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="103"/>
-      <c r="W13" s="104" t="s">
-        <v>10</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S13" s="112"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="114"/>
+      <c r="W13" s="103"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y13" s="102"/>
     </row>
     <row r="14" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
-      <c r="D14" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D14" s="67"/>
       <c r="E14" s="68"/>
       <c r="G14" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="71"/>
+        <v>9</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J14" s="70"/>
       <c r="K14" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="71"/>
+        <v>17</v>
+      </c>
+      <c r="L14" s="71" t="s">
+        <v>17</v>
+      </c>
       <c r="M14" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="71"/>
+        <v>23</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>17</v>
+      </c>
       <c r="Q14" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="105"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="106"/>
-      <c r="W14" s="105" t="s">
-        <v>11</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S14" s="115"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="117"/>
+      <c r="W14" s="104"/>
       <c r="X14" s="71"/>
-      <c r="Y14" s="106" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y14" s="105"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="52"/>
       <c r="G15" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="I15" s="88" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" s="88" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O15" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="Q15" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="104"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="103"/>
-      <c r="W15" s="104" t="s">
-        <v>12</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S15" s="112"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
+      <c r="W15" s="103"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y15" s="102"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="52"/>
       <c r="G16" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="I16" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M16" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O16" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q16" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="104"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="103"/>
-      <c r="W16" s="104" t="s">
-        <v>13</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S16" s="112"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="114"/>
+      <c r="W16" s="103"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y16" s="102"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="52"/>
       <c r="G17" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I17" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M17" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O17" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="104"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="103"/>
-      <c r="W17" s="104" t="s">
-        <v>14</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S17" s="112"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="114"/>
+      <c r="W17" s="103"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y17" s="102"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="52"/>
       <c r="G18" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="M18" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Q18" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="104"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="103"/>
-      <c r="W18" s="104" t="s">
-        <v>15</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S18" s="112"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="114"/>
+      <c r="W18" s="103"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y18" s="102"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="52"/>
       <c r="G19" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="M19" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O19" s="83"/>
-      <c r="P19" s="5"/>
+      <c r="P19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="Q19" s="84"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="103"/>
-      <c r="W19" s="104" t="s">
-        <v>16</v>
-      </c>
+      <c r="S19" s="112"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="114"/>
+      <c r="W19" s="103"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y19" s="102"/>
     </row>
     <row r="20" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
@@ -3338,81 +3315,79 @@
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D20" s="67"/>
       <c r="E20" s="68"/>
       <c r="G20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="71"/>
+      <c r="H20" s="71" t="s">
+        <v>2</v>
+      </c>
       <c r="I20" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J20" s="70"/>
       <c r="K20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="71"/>
+      <c r="L20" s="71" t="s">
+        <v>2</v>
+      </c>
       <c r="M20" s="86" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O20" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="71"/>
+      <c r="P20" s="71" t="s">
+        <v>2</v>
+      </c>
       <c r="Q20" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="105"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="106"/>
-      <c r="W20" s="105" t="s">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S20" s="115"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="117"/>
+      <c r="W20" s="104"/>
       <c r="X20" s="71"/>
-      <c r="Y20" s="106" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y20" s="105"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="52"/>
       <c r="G21" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I21" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M21" s="84" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="O21" s="83"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="84"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="103"/>
-      <c r="W21" s="104" t="s">
-        <v>17</v>
-      </c>
+      <c r="S21" s="112"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="114"/>
+      <c r="W21" s="103"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="103" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y21" s="102"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3425,9 +3400,11 @@
       <c r="G22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I22" s="80" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="79"/>
@@ -3436,20 +3413,18 @@
       <c r="O22" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="Q22" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="98"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="99"/>
-      <c r="W22" s="98" t="s">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S22" s="118"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="120"/>
+      <c r="W22" s="98"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="99" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y22" s="99"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -3490,12 +3465,12 @@
       <c r="O24" s="89"/>
       <c r="P24" s="90"/>
       <c r="Q24" s="91"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="109"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="109"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="108"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="108"/>
     </row>
     <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="8"/>
@@ -3517,162 +3492,158 @@
     </row>
     <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="123" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="124"/>
-      <c r="I26" s="125"/>
+      <c r="G26" s="137" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="L26" s="124"/>
-      <c r="M26" s="125"/>
+      <c r="K26" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="138"/>
+      <c r="M26" s="139"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="123" t="s">
-        <v>87</v>
-      </c>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="125"/>
+      <c r="O26" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="139"/>
       <c r="R26" s="18"/>
-      <c r="S26" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="T26" s="127"/>
-      <c r="U26" s="128"/>
+      <c r="S26" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="T26" s="134"/>
+      <c r="U26" s="135"/>
       <c r="V26" s="18"/>
-      <c r="W26" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="128"/>
+      <c r="W26" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="135"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I27" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="M27" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P27" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="Q27" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="S27" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="T27" s="96" t="s">
-        <v>37</v>
-      </c>
       <c r="U27" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="W27" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="X27" s="96" t="s">
-        <v>37</v>
-      </c>
       <c r="Y27" s="97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="34"/>
       <c r="E28" s="48"/>
       <c r="G28" s="83"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="84" t="s">
-        <v>58</v>
-      </c>
+      <c r="I28" s="84"/>
       <c r="K28" s="83"/>
       <c r="L28" s="5"/>
       <c r="M28" s="84"/>
       <c r="O28" s="83"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="84"/>
-      <c r="S28" s="104"/>
+      <c r="S28" s="103"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="103"/>
-      <c r="W28" s="104"/>
+      <c r="U28" s="102"/>
+      <c r="W28" s="103"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="103"/>
+      <c r="Y28" s="102"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="35"/>
       <c r="E29" s="49"/>
       <c r="G29" s="83"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="84" t="s">
-        <v>56</v>
-      </c>
+      <c r="I29" s="84"/>
       <c r="K29" s="83"/>
       <c r="L29" s="5"/>
       <c r="M29" s="84"/>
       <c r="O29" s="83"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="84"/>
-      <c r="S29" s="104"/>
+      <c r="S29" s="103"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="103"/>
-      <c r="W29" s="104"/>
+      <c r="U29" s="102"/>
+      <c r="W29" s="103"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="103"/>
+      <c r="Y29" s="102"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="35"/>
@@ -3686,19 +3657,19 @@
       <c r="O30" s="83"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="84"/>
-      <c r="S30" s="104"/>
+      <c r="S30" s="103"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="103"/>
-      <c r="W30" s="104"/>
+      <c r="U30" s="102"/>
+      <c r="W30" s="103"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="103"/>
+      <c r="Y30" s="102"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="35"/>
@@ -3712,16 +3683,16 @@
       <c r="O31" s="83"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="84"/>
-      <c r="S31" s="104"/>
+      <c r="S31" s="103"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="103"/>
-      <c r="W31" s="104"/>
+      <c r="U31" s="102"/>
+      <c r="W31" s="103"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="103"/>
+      <c r="Y31" s="102"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="41"/>
@@ -3736,16 +3707,16 @@
       <c r="O32" s="83"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="84"/>
-      <c r="S32" s="104"/>
+      <c r="S32" s="103"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="103"/>
-      <c r="W32" s="104"/>
+      <c r="U32" s="102"/>
+      <c r="W32" s="103"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="103"/>
+      <c r="Y32" s="102"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="41"/>
@@ -3760,16 +3731,16 @@
       <c r="O33" s="83"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="84"/>
-      <c r="S33" s="104"/>
+      <c r="S33" s="103"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="103"/>
-      <c r="W33" s="104"/>
+      <c r="U33" s="102"/>
+      <c r="W33" s="103"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="103"/>
+      <c r="Y33" s="102"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="41"/>
@@ -3784,16 +3755,16 @@
       <c r="O34" s="83"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="84"/>
-      <c r="S34" s="104"/>
+      <c r="S34" s="103"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="103"/>
-      <c r="W34" s="104"/>
+      <c r="U34" s="102"/>
+      <c r="W34" s="103"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="103"/>
+      <c r="Y34" s="102"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="41"/>
@@ -3808,16 +3779,16 @@
       <c r="O35" s="83"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="84"/>
-      <c r="S35" s="104"/>
+      <c r="S35" s="103"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="103"/>
-      <c r="W35" s="104"/>
+      <c r="U35" s="102"/>
+      <c r="W35" s="103"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="103"/>
+      <c r="Y35" s="102"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="41"/>
@@ -3832,16 +3803,16 @@
       <c r="O36" s="83"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="84"/>
-      <c r="S36" s="104"/>
+      <c r="S36" s="103"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="103"/>
-      <c r="W36" s="104"/>
+      <c r="U36" s="102"/>
+      <c r="W36" s="103"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="103"/>
+      <c r="Y36" s="102"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="42"/>
@@ -3865,65 +3836,65 @@
     </row>
     <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G38" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I38" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="M38" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="P38" s="93" t="s">
-        <v>37</v>
-      </c>
       <c r="Q38" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="S38" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="T38" s="96" t="s">
-        <v>37</v>
-      </c>
       <c r="U38" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="X38" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="W38" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="X38" s="96" t="s">
-        <v>37</v>
-      </c>
       <c r="Y38" s="97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="40"/>
@@ -3938,16 +3909,16 @@
       <c r="O39" s="87"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="88"/>
-      <c r="S39" s="104"/>
+      <c r="S39" s="103"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="103"/>
-      <c r="W39" s="104"/>
+      <c r="U39" s="102"/>
+      <c r="W39" s="103"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="103"/>
+      <c r="Y39" s="102"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="41"/>
@@ -3962,16 +3933,16 @@
       <c r="O40" s="83"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="84"/>
-      <c r="S40" s="104"/>
+      <c r="S40" s="103"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="103"/>
-      <c r="W40" s="104"/>
+      <c r="U40" s="102"/>
+      <c r="W40" s="103"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="103"/>
+      <c r="Y40" s="102"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="41"/>
@@ -3986,16 +3957,16 @@
       <c r="O41" s="83"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="84"/>
-      <c r="S41" s="104"/>
+      <c r="S41" s="103"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="103"/>
-      <c r="W41" s="104"/>
+      <c r="U41" s="102"/>
+      <c r="W41" s="103"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="103"/>
+      <c r="Y41" s="102"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="41"/>
@@ -4010,16 +3981,16 @@
       <c r="O42" s="83"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="84"/>
-      <c r="S42" s="104"/>
+      <c r="S42" s="103"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="103"/>
-      <c r="W42" s="104"/>
+      <c r="U42" s="102"/>
+      <c r="W42" s="103"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="103"/>
+      <c r="Y42" s="102"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="41"/>
@@ -4034,16 +4005,16 @@
       <c r="O43" s="83"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="84"/>
-      <c r="S43" s="104"/>
+      <c r="S43" s="103"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="103"/>
-      <c r="W43" s="104"/>
+      <c r="U43" s="102"/>
+      <c r="W43" s="103"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="103"/>
+      <c r="Y43" s="102"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="41"/>
@@ -4058,16 +4029,16 @@
       <c r="O44" s="83"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="84"/>
-      <c r="S44" s="104"/>
+      <c r="S44" s="103"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="103"/>
-      <c r="W44" s="104"/>
+      <c r="U44" s="102"/>
+      <c r="W44" s="103"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="103"/>
+      <c r="Y44" s="102"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="41"/>
@@ -4082,16 +4053,16 @@
       <c r="O45" s="83"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="84"/>
-      <c r="S45" s="104"/>
+      <c r="S45" s="103"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="103"/>
-      <c r="W45" s="104"/>
+      <c r="U45" s="102"/>
+      <c r="W45" s="103"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="103"/>
+      <c r="Y45" s="102"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="41"/>
@@ -4106,16 +4077,16 @@
       <c r="O46" s="83"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="84"/>
-      <c r="S46" s="104"/>
+      <c r="S46" s="103"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="103"/>
-      <c r="W46" s="104"/>
+      <c r="U46" s="102"/>
+      <c r="W46" s="103"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="103"/>
+      <c r="Y46" s="102"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="35"/>
       <c r="C47" s="41"/>
@@ -4130,16 +4101,16 @@
       <c r="O47" s="83"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="84"/>
-      <c r="S47" s="104"/>
+      <c r="S47" s="103"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="103"/>
-      <c r="W47" s="104"/>
+      <c r="U47" s="102"/>
+      <c r="W47" s="103"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="103"/>
+      <c r="Y47" s="102"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="42"/>
@@ -4154,12 +4125,12 @@
       <c r="O48" s="89"/>
       <c r="P48" s="90"/>
       <c r="Q48" s="91"/>
-      <c r="S48" s="107"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="109"/>
-      <c r="W48" s="107"/>
-      <c r="X48" s="108"/>
-      <c r="Y48" s="109"/>
+      <c r="S48" s="106"/>
+      <c r="T48" s="107"/>
+      <c r="U48" s="108"/>
+      <c r="W48" s="106"/>
+      <c r="X48" s="107"/>
+      <c r="Y48" s="108"/>
     </row>
     <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -4170,71 +4141,71 @@
     </row>
     <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G50" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H50" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I50" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="M50" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O50" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="P50" s="77" t="s">
-        <v>37</v>
-      </c>
       <c r="Q50" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="S50" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="S50" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="T50" s="96" t="s">
-        <v>37</v>
-      </c>
       <c r="U50" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="X50" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="W50" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="X50" s="96" t="s">
-        <v>37</v>
-      </c>
       <c r="Y50" s="97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="115"/>
-      <c r="D51" s="116"/>
+        <v>58</v>
+      </c>
+      <c r="B51" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="128"/>
+      <c r="D51" s="129"/>
       <c r="E51" s="45"/>
       <c r="G51" s="83"/>
       <c r="H51" s="5"/>
@@ -4245,22 +4216,22 @@
       <c r="O51" s="83"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="84"/>
-      <c r="S51" s="104"/>
+      <c r="S51" s="103"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="103"/>
-      <c r="W51" s="104"/>
+      <c r="U51" s="102"/>
+      <c r="W51" s="103"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="103"/>
+      <c r="Y51" s="102"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="118"/>
-      <c r="D52" s="119"/>
+        <v>61</v>
+      </c>
+      <c r="B52" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="122"/>
+      <c r="D52" s="123"/>
       <c r="E52" s="46"/>
       <c r="G52" s="83"/>
       <c r="H52" s="5"/>
@@ -4271,22 +4242,22 @@
       <c r="O52" s="83"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="84"/>
-      <c r="S52" s="104"/>
+      <c r="S52" s="103"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="103"/>
-      <c r="W52" s="104"/>
+      <c r="U52" s="102"/>
+      <c r="W52" s="103"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="103"/>
+      <c r="Y52" s="102"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="119"/>
+        <v>63</v>
+      </c>
+      <c r="B53" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="122"/>
+      <c r="D53" s="123"/>
       <c r="E53" s="46"/>
       <c r="G53" s="83"/>
       <c r="H53" s="5"/>
@@ -4297,22 +4268,22 @@
       <c r="O53" s="83"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="84"/>
-      <c r="S53" s="104"/>
+      <c r="S53" s="103"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="103"/>
-      <c r="W53" s="104"/>
+      <c r="U53" s="102"/>
+      <c r="W53" s="103"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="103"/>
+      <c r="Y53" s="102"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="118"/>
-      <c r="D54" s="119"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="123"/>
       <c r="E54" s="46"/>
       <c r="G54" s="83"/>
       <c r="H54" s="5"/>
@@ -4323,33 +4294,33 @@
       <c r="O54" s="83"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="84"/>
-      <c r="S54" s="104"/>
+      <c r="S54" s="103"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="103"/>
-      <c r="W54" s="104"/>
+      <c r="U54" s="102"/>
+      <c r="W54" s="103"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="103"/>
+      <c r="Y54" s="102"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="118"/>
-      <c r="D55" s="119"/>
+        <v>69</v>
+      </c>
+      <c r="B55" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="122"/>
+      <c r="D55" s="123"/>
       <c r="E55" s="46" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G55" s="83" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I55" s="84" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="K55" s="83"/>
       <c r="L55" s="5"/>
@@ -4357,12 +4328,12 @@
       <c r="O55" s="83"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="84"/>
-      <c r="S55" s="104"/>
+      <c r="S55" s="103"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="103"/>
-      <c r="W55" s="104"/>
+      <c r="U55" s="102"/>
+      <c r="W55" s="103"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="103"/>
+      <c r="Y55" s="102"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
@@ -4379,18 +4350,18 @@
       <c r="O56" s="83"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="84"/>
-      <c r="S56" s="104"/>
+      <c r="S56" s="103"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="103"/>
-      <c r="W56" s="104"/>
+      <c r="U56" s="102"/>
+      <c r="W56" s="103"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="103"/>
+      <c r="Y56" s="102"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="119"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="123"/>
       <c r="E57" s="46"/>
       <c r="G57" s="83"/>
       <c r="H57" s="5"/>
@@ -4401,18 +4372,18 @@
       <c r="O57" s="83"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="84"/>
-      <c r="S57" s="104"/>
+      <c r="S57" s="103"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="103"/>
-      <c r="W57" s="104"/>
+      <c r="U57" s="102"/>
+      <c r="W57" s="103"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="103"/>
+      <c r="Y57" s="102"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="123"/>
       <c r="E58" s="46"/>
       <c r="G58" s="83"/>
       <c r="H58" s="5"/>
@@ -4423,18 +4394,18 @@
       <c r="O58" s="83"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="84"/>
-      <c r="S58" s="104"/>
+      <c r="S58" s="103"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="103"/>
-      <c r="W58" s="104"/>
+      <c r="U58" s="102"/>
+      <c r="W58" s="103"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="103"/>
+      <c r="Y58" s="102"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="123"/>
       <c r="E59" s="46"/>
       <c r="G59" s="83"/>
       <c r="H59" s="5"/>
@@ -4445,18 +4416,18 @@
       <c r="O59" s="83"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="84"/>
-      <c r="S59" s="104"/>
+      <c r="S59" s="103"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="103"/>
-      <c r="W59" s="104"/>
+      <c r="U59" s="102"/>
+      <c r="W59" s="103"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="103"/>
+      <c r="Y59" s="102"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="123"/>
       <c r="E60" s="46"/>
       <c r="G60" s="83"/>
       <c r="H60" s="5"/>
@@ -4467,18 +4438,18 @@
       <c r="O60" s="83"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="84"/>
-      <c r="S60" s="104"/>
+      <c r="S60" s="103"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="103"/>
-      <c r="W60" s="104"/>
+      <c r="U60" s="102"/>
+      <c r="W60" s="103"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="103"/>
+      <c r="Y60" s="102"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="122"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="126"/>
       <c r="E61" s="47"/>
       <c r="G61" s="89"/>
       <c r="H61" s="90"/>
@@ -4489,31 +4460,23 @@
       <c r="O61" s="89"/>
       <c r="P61" s="90"/>
       <c r="Q61" s="91"/>
-      <c r="S61" s="107"/>
-      <c r="T61" s="108"/>
-      <c r="U61" s="109"/>
-      <c r="W61" s="107"/>
-      <c r="X61" s="108"/>
-      <c r="Y61" s="109"/>
+      <c r="S61" s="106"/>
+      <c r="T61" s="107"/>
+      <c r="U61" s="108"/>
+      <c r="W61" s="106"/>
+      <c r="X61" s="107"/>
+      <c r="Y61" s="108"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ghYQp1yHCBM3e14L7Y5+odvqFjlzvYqTGZNasbi/fK5ZuSf+3U8FTZ1LAt91+I+sUADVgGYfe5nE+ILrqzzzTA==" saltValue="psF2N6TSriO5MKDystZ4AA==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A28:X37 A39:Y48 A51:Y61" name="Questionnaire"/>
+    <protectedRange sqref="A1" name="title"/>
+    <protectedRange sqref="A28:X37 A39:Y48 A51:Y61" name="questionnaire"/>
     <protectedRange sqref="A7:Q24" name="Contact Fields"/>
+    <protectedRange sqref="S4:Y61" name="customEntity"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="W4:Y4"/>
@@ -4524,6 +4487,16 @@
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:AG48">
@@ -4574,6 +4547,11 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I24 M7:M24 Q7:Q24 U7:U24 Y7:Y24 I28:I37 M28:M37 Q28:Q37 U28:U37 Y28:Y37 Y39:Y48 U39:U48 Q39:Q48 M39:M48 I39:I48 I51:I61 M51:M61 Q51:Q61 U51:U61 Y51:Y61" xr:uid="{53714382-D0A9-47D2-8C1D-AEC48E8210E1}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4581,9 +4559,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4796,27 +4777,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4841,9 +4810,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Pipedrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32591F9-B7FA-408F-8CDB-0EBF9593A70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E94BA94-23FB-4506-81E3-CCD0167B7675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{AF7B73F2-86DB-4CB3-9D7A-2BE84EEA9DCF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{654DC947-84B4-4F4E-A5ED-37C5CA8BECB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
   <si>
@@ -214,8 +252,68 @@
     <t>Pipedrive: Organisation</t>
   </si>
   <si>
+    <t>CRM System: Pipedrive</t>
+  </si>
+  <si>
+    <t>Pipedrive: Deal</t>
+  </si>
+  <si>
+    <t>Pipedrive: Person</t>
+  </si>
+  <si>
+    <t>snapADDY - VisitReport Template</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Question Type</t>
+  </si>
+  <si>
+    <t>Example: "Which products do you use already?"</t>
+  </si>
+  <si>
+    <t>multiselect</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Question 1:</t>
+  </si>
+  <si>
+    <t>Question 2:</t>
+  </si>
+  <si>
+    <t>Question 3:</t>
+  </si>
+  <si>
+    <t>Question 4:</t>
+  </si>
+  <si>
+    <t>Question 5:</t>
+  </si>
+  <si>
+    <t>Question 6:</t>
+  </si>
+  <si>
+    <t>Question 7:</t>
+  </si>
+  <si>
+    <t>Question 8:</t>
+  </si>
+  <si>
+    <t>Question 9:</t>
+  </si>
+  <si>
+    <t>Question 10:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Pipedrive: Custom Entity </t>
+      <t xml:space="preserve">Pipedrive: Additional Entity </t>
     </r>
     <r>
       <rPr>
@@ -230,74 +328,14 @@
     </r>
   </si>
   <si>
-    <t>Pipedrive: Custom Entity</t>
-  </si>
-  <si>
-    <t>CRM System: Pipedrive</t>
-  </si>
-  <si>
-    <t>Pipedrive: Deal</t>
-  </si>
-  <si>
-    <t>Pipedrive: Person</t>
-  </si>
-  <si>
-    <t>snapADDY - VisitReport Template</t>
-  </si>
-  <si>
-    <t>Group 1</t>
-  </si>
-  <si>
-    <t>Question Type</t>
-  </si>
-  <si>
-    <t>Example: "Which products do you use already?"</t>
-  </si>
-  <si>
-    <t>multiselect</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Question 1:</t>
-  </si>
-  <si>
-    <t>Question 2:</t>
-  </si>
-  <si>
-    <t>Question 3:</t>
-  </si>
-  <si>
-    <t>Question 4:</t>
-  </si>
-  <si>
-    <t>Question 5:</t>
-  </si>
-  <si>
-    <t>Question 6:</t>
-  </si>
-  <si>
-    <t>Question 7:</t>
-  </si>
-  <si>
-    <t>Question 8:</t>
-  </si>
-  <si>
-    <t>Question 9:</t>
-  </si>
-  <si>
-    <t>Question 10:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 2 </t>
+    <t>Pipedrive: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +424,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1751,7 +1796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1822,9 +1867,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1954,45 +1996,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2018,6 +2021,45 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3360,12 +3402,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,7 +3442,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3410,9 +3452,9 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="G3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -3426,146 +3468,146 @@
         <v>24</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="139" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
+      <c r="G4" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="139" t="s">
+      <c r="K4" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="O4" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="S4" s="136" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="137"/>
-      <c r="U4" s="138"/>
-      <c r="W4" s="136" t="s">
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="O4" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="138"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="S4" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="154"/>
+      <c r="U4" s="155"/>
+      <c r="W4" s="153" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="154"/>
+      <c r="Y4" s="155"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="135" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="P6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="70" t="s">
+      <c r="S6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="71" t="s">
+      <c r="T6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="70" t="s">
+      <c r="W6" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="71" t="s">
+      <c r="X6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="72" t="s">
+      <c r="Y6" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="17"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="36"/>
-      <c r="G7" s="59"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="59"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="60"/>
-      <c r="O7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="60"/>
-      <c r="S7" s="73"/>
+      <c r="Q7" s="59"/>
+      <c r="S7" s="72"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="74"/>
-      <c r="W7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="W7" s="72"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="74"/>
-    </row>
-    <row r="8" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="73"/>
+    </row>
+    <row r="8" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="37"/>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="60" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="62"/>
-      <c r="O8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="62"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="84"/>
-      <c r="W8" s="76"/>
+      <c r="Q8" s="61"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="83"/>
+      <c r="W8" s="75"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="75"/>
+      <c r="Y8" s="74"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3575,28 +3617,28 @@
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="37"/>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="61" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="61"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="62"/>
-      <c r="O9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="62"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="84"/>
-      <c r="W9" s="76"/>
+      <c r="Q9" s="61"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="83"/>
+      <c r="W9" s="75"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="75"/>
+      <c r="Y9" s="74"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -3606,28 +3648,28 @@
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="37"/>
-      <c r="G10" s="61"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="62"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="60" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="61"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="62"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
-      <c r="W10" s="76"/>
+      <c r="Q10" s="61"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="83"/>
+      <c r="W10" s="75"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="75"/>
+      <c r="Y10" s="74"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -3637,61 +3679,61 @@
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="37"/>
-      <c r="G11" s="61"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="62"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="61" t="s">
+      <c r="K11" s="60" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="61"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="62"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84"/>
-      <c r="W11" s="76"/>
+      <c r="Q11" s="61"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="83"/>
+      <c r="W11" s="75"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="75"/>
+      <c r="Y11" s="74"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="58" t="s">
         <v>46</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="59"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="60"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
-      <c r="W12" s="76"/>
+      <c r="Q12" s="59"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="83"/>
+      <c r="W12" s="75"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="75"/>
-    </row>
-    <row r="13" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="74"/>
+    </row>
+    <row r="13" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -3699,28 +3741,28 @@
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="37"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="63" t="s">
+      <c r="G13" s="62"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="64" t="s">
+      <c r="M13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="64"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="87"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="78"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="63"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="86"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="77"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3730,28 +3772,28 @@
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="37"/>
-      <c r="G14" s="65"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="66"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="64" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="66" t="s">
+      <c r="M14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="65"/>
+      <c r="O14" s="64"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="66"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84"/>
-      <c r="W14" s="76"/>
+      <c r="Q14" s="65"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="83"/>
+      <c r="W14" s="75"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="75"/>
+      <c r="Y14" s="74"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3761,28 +3803,28 @@
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="37"/>
-      <c r="G15" s="61"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="62"/>
+      <c r="I15" s="61"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="60" t="s">
         <v>46</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="62" t="s">
+      <c r="M15" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="61"/>
+      <c r="O15" s="60"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="62"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="84"/>
-      <c r="W15" s="76"/>
+      <c r="Q15" s="61"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="83"/>
+      <c r="W15" s="75"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="75"/>
+      <c r="Y15" s="74"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -3792,28 +3834,28 @@
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="37"/>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="60" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="61" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="61"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="62"/>
-      <c r="O16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="62"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="84"/>
-      <c r="W16" s="76"/>
+      <c r="Q16" s="61"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="83"/>
+      <c r="W16" s="75"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="75"/>
+      <c r="Y16" s="74"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -3823,61 +3865,61 @@
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="37"/>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="60" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="61" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="61"/>
+      <c r="K17" s="60"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="62"/>
-      <c r="O17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="O17" s="60"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="62"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="84"/>
-      <c r="W17" s="76"/>
+      <c r="Q17" s="61"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="83"/>
+      <c r="W17" s="75"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="75"/>
+      <c r="Y17" s="74"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="G18" s="61" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="G18" s="60" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="61" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="61"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="62"/>
-      <c r="O18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="O18" s="60"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="62"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="84"/>
-      <c r="W18" s="76"/>
+      <c r="Q18" s="61"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="83"/>
+      <c r="W18" s="75"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="75"/>
-    </row>
-    <row r="19" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="74"/>
+    </row>
+    <row r="19" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -3885,28 +3927,28 @@
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="37"/>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="64"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="64"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="87"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="78"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="63"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="63"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="86"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="77"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -3916,28 +3958,28 @@
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="37"/>
-      <c r="G20" s="61"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="62"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="61"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="62"/>
-      <c r="O20" s="61" t="s">
+      <c r="M20" s="61"/>
+      <c r="O20" s="60" t="s">
         <v>40</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="62" t="s">
+      <c r="Q20" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="82"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="84"/>
-      <c r="W20" s="76"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="83"/>
+      <c r="W20" s="75"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="75"/>
+      <c r="Y20" s="74"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3947,28 +3989,28 @@
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="37"/>
-      <c r="G21" s="59"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="59"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="60"/>
-      <c r="O21" s="59" t="s">
+      <c r="M21" s="59"/>
+      <c r="O21" s="58" t="s">
         <v>36</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="60" t="s">
+      <c r="Q21" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="88"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="90"/>
-      <c r="W21" s="73"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="89"/>
+      <c r="W21" s="72"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="74"/>
+      <c r="Y21" s="73"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3978,28 +4020,28 @@
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="37"/>
-      <c r="G22" s="59"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="59"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="59"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="60"/>
-      <c r="O22" s="59" t="s">
+      <c r="M22" s="59"/>
+      <c r="O22" s="58" t="s">
         <v>37</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="60" t="s">
+      <c r="Q22" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="S22" s="88"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="90"/>
-      <c r="W22" s="73"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="89"/>
+      <c r="W22" s="72"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="74"/>
+      <c r="Y22" s="73"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -4009,51 +4051,51 @@
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="37"/>
-      <c r="G23" s="59"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="59"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="60"/>
-      <c r="O23" s="59" t="s">
+      <c r="M23" s="59"/>
+      <c r="O23" s="58" t="s">
         <v>44</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q23" s="60" t="s">
+      <c r="Q23" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="S23" s="73"/>
+      <c r="S23" s="72"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="74"/>
-      <c r="W23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="W23" s="72"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="74"/>
+      <c r="Y23" s="73"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="G24" s="59"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="59"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="59"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="60"/>
-      <c r="O24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="60"/>
-      <c r="S24" s="73"/>
+      <c r="Q24" s="59"/>
+      <c r="S24" s="72"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="74"/>
-      <c r="W24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="W24" s="72"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="74"/>
+      <c r="Y24" s="73"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
@@ -4061,22 +4103,22 @@
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
       <c r="E25" s="38"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="69"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="81"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="81"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="68"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="80"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="80"/>
     </row>
     <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G26" s="8"/>
@@ -4089,718 +4131,718 @@
       <c r="O26" s="8"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="9"/>
-      <c r="S26" s="54"/>
+      <c r="S26" s="53"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="55"/>
+      <c r="U26" s="54"/>
       <c r="W26" s="8"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="G27" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="136"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="T27" s="142"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="141" t="s">
+        <v>70</v>
+      </c>
+      <c r="X27" s="142"/>
+      <c r="Y27" s="143"/>
+    </row>
+    <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129"/>
-      <c r="G27" s="149" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="150"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="149" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="150"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="T27" s="156"/>
-      <c r="U27" s="157"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="157"/>
-    </row>
-    <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="133" t="s">
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="114" t="s">
+      <c r="G28" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="113" t="s">
+      <c r="H28" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="115" t="s">
+      <c r="I28" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="114" t="s">
+      <c r="K28" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="113" t="s">
+      <c r="L28" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="115" t="s">
+      <c r="M28" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="56" t="s">
+      <c r="O28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q28" s="58" t="s">
+      <c r="Q28" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="70" t="s">
+      <c r="S28" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="71" t="s">
+      <c r="T28" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="72" t="s">
+      <c r="U28" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="W28" s="70" t="s">
+      <c r="W28" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="X28" s="71" t="s">
+      <c r="X28" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="Y28" s="72" t="s">
+      <c r="Y28" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="100"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="59"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="62"/>
-      <c r="K29" s="59"/>
+      <c r="I29" s="61"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="62"/>
-      <c r="O29" s="59"/>
+      <c r="M29" s="61"/>
+      <c r="O29" s="58"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="62"/>
-      <c r="S29" s="76"/>
+      <c r="Q29" s="61"/>
+      <c r="S29" s="75"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="75"/>
-      <c r="W29" s="76"/>
+      <c r="U29" s="74"/>
+      <c r="W29" s="75"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="75"/>
+      <c r="Y29" s="74"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="99"/>
-      <c r="G30" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="B30" s="99"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="98"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="62"/>
-      <c r="K30" s="59"/>
+      <c r="I30" s="61"/>
+      <c r="K30" s="58"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="62"/>
-      <c r="O30" s="59"/>
+      <c r="M30" s="61"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="62"/>
-      <c r="S30" s="76"/>
+      <c r="Q30" s="61"/>
+      <c r="S30" s="75"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="75"/>
-      <c r="W30" s="76"/>
+      <c r="U30" s="74"/>
+      <c r="W30" s="75"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="75"/>
+      <c r="Y30" s="74"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="104"/>
-      <c r="G31" s="59"/>
+        <v>59</v>
+      </c>
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="103"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="62"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="61"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="62"/>
-      <c r="O31" s="59"/>
+      <c r="M31" s="61"/>
+      <c r="O31" s="58"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="62"/>
-      <c r="S31" s="76"/>
+      <c r="Q31" s="61"/>
+      <c r="S31" s="75"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="75"/>
-      <c r="W31" s="76"/>
+      <c r="U31" s="74"/>
+      <c r="W31" s="75"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="75"/>
+      <c r="Y31" s="74"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="104"/>
-      <c r="G32" s="59"/>
+        <v>60</v>
+      </c>
+      <c r="B32" s="101"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="103"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="62"/>
-      <c r="K32" s="59"/>
+      <c r="I32" s="61"/>
+      <c r="K32" s="58"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="62"/>
-      <c r="O32" s="59"/>
+      <c r="M32" s="61"/>
+      <c r="O32" s="58"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="62"/>
-      <c r="S32" s="76"/>
+      <c r="Q32" s="61"/>
+      <c r="S32" s="75"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="75"/>
-      <c r="W32" s="76"/>
+      <c r="U32" s="74"/>
+      <c r="W32" s="75"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="75"/>
+      <c r="Y32" s="74"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="104"/>
-      <c r="G33" s="59"/>
+        <v>61</v>
+      </c>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="103"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="62"/>
-      <c r="K33" s="59"/>
+      <c r="I33" s="61"/>
+      <c r="K33" s="58"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="62"/>
-      <c r="O33" s="59"/>
+      <c r="M33" s="61"/>
+      <c r="O33" s="58"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="62"/>
-      <c r="S33" s="76"/>
+      <c r="Q33" s="61"/>
+      <c r="S33" s="75"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="75"/>
-      <c r="W33" s="76"/>
+      <c r="U33" s="74"/>
+      <c r="W33" s="75"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="75"/>
+      <c r="Y33" s="74"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="104"/>
-      <c r="G34" s="59"/>
+        <v>62</v>
+      </c>
+      <c r="B34" s="101"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="103"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="62"/>
-      <c r="K34" s="59"/>
+      <c r="I34" s="61"/>
+      <c r="K34" s="58"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="62"/>
-      <c r="O34" s="59"/>
+      <c r="M34" s="61"/>
+      <c r="O34" s="58"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="62"/>
-      <c r="S34" s="76"/>
+      <c r="Q34" s="61"/>
+      <c r="S34" s="75"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="75"/>
-      <c r="W34" s="76"/>
+      <c r="U34" s="74"/>
+      <c r="W34" s="75"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="75"/>
+      <c r="Y34" s="74"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="104"/>
-      <c r="G35" s="59"/>
+        <v>63</v>
+      </c>
+      <c r="B35" s="101"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="103"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="62"/>
-      <c r="K35" s="59"/>
+      <c r="I35" s="61"/>
+      <c r="K35" s="58"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="62"/>
-      <c r="O35" s="59"/>
+      <c r="M35" s="61"/>
+      <c r="O35" s="58"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="62"/>
-      <c r="S35" s="76"/>
+      <c r="Q35" s="61"/>
+      <c r="S35" s="75"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="75"/>
-      <c r="W35" s="76"/>
+      <c r="U35" s="74"/>
+      <c r="W35" s="75"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="75"/>
+      <c r="Y35" s="74"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="104"/>
-      <c r="G36" s="59"/>
+        <v>64</v>
+      </c>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="103"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="62"/>
-      <c r="K36" s="59"/>
+      <c r="I36" s="61"/>
+      <c r="K36" s="58"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="62"/>
-      <c r="O36" s="59"/>
+      <c r="M36" s="61"/>
+      <c r="O36" s="58"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="62"/>
-      <c r="S36" s="76"/>
+      <c r="Q36" s="61"/>
+      <c r="S36" s="75"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="75"/>
-      <c r="W36" s="76"/>
+      <c r="U36" s="74"/>
+      <c r="W36" s="75"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="75"/>
+      <c r="Y36" s="74"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="104"/>
-      <c r="G37" s="59"/>
+        <v>65</v>
+      </c>
+      <c r="B37" s="101"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="103"/>
+      <c r="G37" s="58"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="62"/>
-      <c r="K37" s="59"/>
+      <c r="I37" s="61"/>
+      <c r="K37" s="58"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="62"/>
-      <c r="O37" s="59"/>
+      <c r="M37" s="61"/>
+      <c r="O37" s="58"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="62"/>
-      <c r="S37" s="76"/>
+      <c r="Q37" s="61"/>
+      <c r="S37" s="75"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="75"/>
-      <c r="W37" s="76"/>
+      <c r="U37" s="74"/>
+      <c r="W37" s="75"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="75"/>
+      <c r="Y37" s="74"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="104"/>
-      <c r="G38" s="59"/>
+        <v>66</v>
+      </c>
+      <c r="B38" s="101"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="103"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="62"/>
-      <c r="K38" s="59"/>
+      <c r="I38" s="61"/>
+      <c r="K38" s="58"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="62"/>
-      <c r="O38" s="59"/>
+      <c r="M38" s="61"/>
+      <c r="O38" s="58"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="62"/>
-      <c r="S38" s="76"/>
+      <c r="Q38" s="61"/>
+      <c r="S38" s="75"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="75"/>
-      <c r="W38" s="76"/>
+      <c r="U38" s="74"/>
+      <c r="W38" s="75"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="75"/>
+      <c r="Y38" s="74"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="107"/>
-      <c r="G39" s="59"/>
+        <v>67</v>
+      </c>
+      <c r="B39" s="104"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="106"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="60"/>
-      <c r="K39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="K39" s="58"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="60"/>
-      <c r="O39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="O39" s="58"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="60"/>
-      <c r="S39" s="73"/>
+      <c r="Q39" s="59"/>
+      <c r="S39" s="72"/>
       <c r="T39" s="6"/>
-      <c r="U39" s="74"/>
-      <c r="W39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="W39" s="72"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="74"/>
+      <c r="Y39" s="73"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="107"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="69"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="69"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="81"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="81"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="106"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="68"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="68"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="68"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="80"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="80"/>
     </row>
     <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125" t="s">
+      <c r="A41" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="57" t="s">
+      <c r="H41" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K41" s="56" t="s">
+      <c r="K41" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="57" t="s">
+      <c r="L41" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="58" t="s">
+      <c r="M41" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="O41" s="116" t="s">
+      <c r="O41" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="P41" s="117" t="s">
+      <c r="P41" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="Q41" s="118" t="s">
+      <c r="Q41" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="S41" s="122" t="s">
+      <c r="S41" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="T41" s="123" t="s">
+      <c r="T41" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="U41" s="124" t="s">
+      <c r="U41" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="W41" s="122" t="s">
+      <c r="W41" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="X41" s="123" t="s">
+      <c r="X41" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="Y41" s="124" t="s">
+      <c r="Y41" s="123" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="99"/>
-      <c r="G42" s="61"/>
+      <c r="A42" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="98"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="62"/>
-      <c r="K42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="K42" s="60"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="62"/>
-      <c r="O42" s="65"/>
+      <c r="M42" s="61"/>
+      <c r="O42" s="64"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="66"/>
-      <c r="S42" s="119"/>
-      <c r="T42" s="120"/>
-      <c r="U42" s="121"/>
-      <c r="W42" s="119"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="121"/>
+      <c r="Q42" s="65"/>
+      <c r="S42" s="118"/>
+      <c r="T42" s="119"/>
+      <c r="U42" s="120"/>
+      <c r="W42" s="118"/>
+      <c r="X42" s="119"/>
+      <c r="Y42" s="120"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="104"/>
-      <c r="G43" s="61"/>
+        <v>59</v>
+      </c>
+      <c r="B43" s="101"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="103"/>
+      <c r="G43" s="60"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="62"/>
-      <c r="K43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="K43" s="60"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="62"/>
-      <c r="O43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="O43" s="60"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="62"/>
-      <c r="S43" s="76"/>
+      <c r="Q43" s="61"/>
+      <c r="S43" s="75"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="75"/>
-      <c r="W43" s="76"/>
+      <c r="U43" s="74"/>
+      <c r="W43" s="75"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="75"/>
+      <c r="Y43" s="74"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="104"/>
-      <c r="G44" s="61"/>
+        <v>60</v>
+      </c>
+      <c r="B44" s="101"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="103"/>
+      <c r="G44" s="60"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="62"/>
-      <c r="K44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="K44" s="60"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="62"/>
-      <c r="O44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="O44" s="60"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="62"/>
-      <c r="S44" s="76"/>
+      <c r="Q44" s="61"/>
+      <c r="S44" s="75"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="75"/>
-      <c r="W44" s="76"/>
+      <c r="U44" s="74"/>
+      <c r="W44" s="75"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="75"/>
+      <c r="Y44" s="74"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="104"/>
-      <c r="G45" s="61"/>
+        <v>61</v>
+      </c>
+      <c r="B45" s="101"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="103"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="62"/>
-      <c r="K45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="K45" s="60"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="62"/>
-      <c r="O45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="O45" s="60"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="62"/>
-      <c r="S45" s="76"/>
+      <c r="Q45" s="61"/>
+      <c r="S45" s="75"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="75"/>
-      <c r="W45" s="76"/>
+      <c r="U45" s="74"/>
+      <c r="W45" s="75"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="75"/>
+      <c r="Y45" s="74"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="104"/>
-      <c r="G46" s="61"/>
+        <v>62</v>
+      </c>
+      <c r="B46" s="101"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="103"/>
+      <c r="G46" s="60"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="62"/>
-      <c r="K46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="K46" s="60"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="62"/>
-      <c r="O46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="O46" s="60"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="62"/>
-      <c r="S46" s="76"/>
+      <c r="Q46" s="61"/>
+      <c r="S46" s="75"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="75"/>
-      <c r="W46" s="76"/>
+      <c r="U46" s="74"/>
+      <c r="W46" s="75"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="75"/>
+      <c r="Y46" s="74"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="104"/>
-      <c r="G47" s="61"/>
+        <v>63</v>
+      </c>
+      <c r="B47" s="101"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="103"/>
+      <c r="G47" s="60"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="62"/>
-      <c r="K47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="K47" s="60"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="62"/>
-      <c r="O47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="O47" s="60"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="62"/>
-      <c r="S47" s="76"/>
+      <c r="Q47" s="61"/>
+      <c r="S47" s="75"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="75"/>
-      <c r="W47" s="76"/>
+      <c r="U47" s="74"/>
+      <c r="W47" s="75"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="75"/>
+      <c r="Y47" s="74"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="104"/>
-      <c r="G48" s="61"/>
+        <v>64</v>
+      </c>
+      <c r="B48" s="101"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="103"/>
+      <c r="G48" s="60"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="62"/>
-      <c r="K48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="K48" s="60"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="62"/>
-      <c r="O48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="O48" s="60"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="62"/>
-      <c r="S48" s="76"/>
+      <c r="Q48" s="61"/>
+      <c r="S48" s="75"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="75"/>
-      <c r="W48" s="76"/>
+      <c r="U48" s="74"/>
+      <c r="W48" s="75"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="75"/>
+      <c r="Y48" s="74"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="104"/>
-      <c r="G49" s="61"/>
+        <v>65</v>
+      </c>
+      <c r="B49" s="101"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="103"/>
+      <c r="G49" s="60"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="62"/>
-      <c r="K49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="K49" s="60"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="62"/>
-      <c r="O49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="O49" s="60"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="62"/>
-      <c r="S49" s="76"/>
+      <c r="Q49" s="61"/>
+      <c r="S49" s="75"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="75"/>
-      <c r="W49" s="76"/>
+      <c r="U49" s="74"/>
+      <c r="W49" s="75"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="75"/>
+      <c r="Y49" s="74"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="104"/>
-      <c r="G50" s="61"/>
+        <v>66</v>
+      </c>
+      <c r="B50" s="101"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="103"/>
+      <c r="G50" s="60"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="62"/>
-      <c r="K50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="K50" s="60"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="62"/>
-      <c r="O50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="O50" s="60"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="62"/>
-      <c r="S50" s="76"/>
+      <c r="Q50" s="61"/>
+      <c r="S50" s="75"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="75"/>
-      <c r="W50" s="76"/>
+      <c r="U50" s="74"/>
+      <c r="W50" s="75"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="75"/>
+      <c r="Y50" s="74"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="105"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="107"/>
-      <c r="G51" s="59"/>
+        <v>67</v>
+      </c>
+      <c r="B51" s="104"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="106"/>
+      <c r="G51" s="58"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="60"/>
-      <c r="K51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="K51" s="58"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="60"/>
-      <c r="O51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="O51" s="58"/>
       <c r="P51" s="6"/>
-      <c r="Q51" s="60"/>
-      <c r="S51" s="73"/>
+      <c r="Q51" s="59"/>
+      <c r="S51" s="72"/>
       <c r="T51" s="6"/>
-      <c r="U51" s="74"/>
-      <c r="W51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="W51" s="72"/>
       <c r="X51" s="6"/>
-      <c r="Y51" s="74"/>
+      <c r="Y51" s="73"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="110"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="69"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="69"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="69"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="81"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="81"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="109"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="68"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="68"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="68"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="80"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="79"/>
+      <c r="Y52" s="80"/>
     </row>
     <row r="53" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G53" s="8"/>
@@ -4815,7 +4857,7 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="125" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -4826,49 +4868,49 @@
       <c r="E54" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="56" t="s">
+      <c r="G54" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="57" t="s">
+      <c r="H54" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I54" s="58" t="s">
+      <c r="I54" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K54" s="56" t="s">
+      <c r="K54" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L54" s="57" t="s">
+      <c r="L54" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M54" s="58" t="s">
+      <c r="M54" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="O54" s="56" t="s">
+      <c r="O54" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P54" s="57" t="s">
+      <c r="P54" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Q54" s="58" t="s">
+      <c r="Q54" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="S54" s="70" t="s">
+      <c r="S54" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="T54" s="71" t="s">
+      <c r="T54" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="U54" s="72" t="s">
+      <c r="U54" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="W54" s="70" t="s">
+      <c r="W54" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="X54" s="71" t="s">
+      <c r="X54" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="Y54" s="72" t="s">
+      <c r="Y54" s="71" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4876,259 +4918,259 @@
       <c r="A55" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="140" t="s">
+      <c r="B55" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="141"/>
-      <c r="D55" s="142"/>
+      <c r="C55" s="151"/>
+      <c r="D55" s="152"/>
       <c r="E55" s="33"/>
-      <c r="G55" s="61"/>
+      <c r="G55" s="60"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="62"/>
-      <c r="K55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="K55" s="60"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="62"/>
-      <c r="O55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="O55" s="60"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="62"/>
-      <c r="S55" s="76"/>
+      <c r="Q55" s="61"/>
+      <c r="S55" s="75"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="75"/>
-      <c r="W55" s="76"/>
+      <c r="U55" s="74"/>
+      <c r="W55" s="75"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="75"/>
+      <c r="Y55" s="74"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="143" t="s">
+      <c r="B56" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="144"/>
-      <c r="D56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146"/>
       <c r="E56" s="34"/>
-      <c r="G56" s="61"/>
+      <c r="G56" s="60"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="62"/>
-      <c r="K56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="K56" s="60"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="62"/>
-      <c r="O56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="O56" s="60"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="62"/>
-      <c r="S56" s="76"/>
+      <c r="Q56" s="61"/>
+      <c r="S56" s="75"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="75"/>
-      <c r="W56" s="76"/>
+      <c r="U56" s="74"/>
+      <c r="W56" s="75"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="75"/>
+      <c r="Y56" s="74"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="144"/>
-      <c r="D57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="146"/>
       <c r="E57" s="34"/>
-      <c r="G57" s="61"/>
+      <c r="G57" s="60"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="62"/>
-      <c r="K57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="K57" s="60"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="62"/>
-      <c r="O57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="O57" s="60"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="62"/>
-      <c r="S57" s="76"/>
+      <c r="Q57" s="61"/>
+      <c r="S57" s="75"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="75"/>
-      <c r="W57" s="76"/>
+      <c r="U57" s="74"/>
+      <c r="W57" s="75"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="75"/>
+      <c r="Y57" s="74"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="143" t="s">
+      <c r="B58" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="144"/>
-      <c r="D58" s="145"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="146"/>
       <c r="E58" s="34"/>
-      <c r="G58" s="61"/>
+      <c r="G58" s="60"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="62"/>
-      <c r="K58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="K58" s="60"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="62"/>
-      <c r="O58" s="61"/>
+      <c r="M58" s="61"/>
+      <c r="O58" s="60"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="62"/>
-      <c r="S58" s="76"/>
+      <c r="Q58" s="61"/>
+      <c r="S58" s="75"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="75"/>
-      <c r="W58" s="76"/>
+      <c r="U58" s="74"/>
+      <c r="W58" s="75"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="75"/>
+      <c r="Y58" s="74"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="145"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="146"/>
       <c r="E59" s="34"/>
-      <c r="G59" s="61"/>
+      <c r="G59" s="60"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="62"/>
-      <c r="K59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="K59" s="60"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="62"/>
-      <c r="O59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="O59" s="60"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="62"/>
-      <c r="S59" s="76"/>
+      <c r="Q59" s="61"/>
+      <c r="S59" s="75"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="75"/>
-      <c r="W59" s="76"/>
+      <c r="U59" s="74"/>
+      <c r="W59" s="75"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="75"/>
+      <c r="Y59" s="74"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="42"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
       <c r="E60" s="34"/>
-      <c r="G60" s="61"/>
+      <c r="G60" s="60"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="62"/>
-      <c r="K60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="K60" s="60"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="62"/>
-      <c r="O60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="O60" s="60"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="62"/>
-      <c r="S60" s="76"/>
+      <c r="Q60" s="61"/>
+      <c r="S60" s="75"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="75"/>
-      <c r="W60" s="76"/>
+      <c r="U60" s="74"/>
+      <c r="W60" s="75"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="75"/>
+      <c r="Y60" s="74"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="145"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="146"/>
       <c r="E61" s="34"/>
-      <c r="G61" s="61"/>
+      <c r="G61" s="60"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="62"/>
-      <c r="K61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="K61" s="60"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="62"/>
-      <c r="O61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="O61" s="60"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="62"/>
-      <c r="S61" s="76"/>
+      <c r="Q61" s="61"/>
+      <c r="S61" s="75"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="75"/>
-      <c r="W61" s="76"/>
+      <c r="U61" s="74"/>
+      <c r="W61" s="75"/>
       <c r="X61" s="5"/>
-      <c r="Y61" s="75"/>
+      <c r="Y61" s="74"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="145"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="146"/>
       <c r="E62" s="34"/>
-      <c r="G62" s="61"/>
+      <c r="G62" s="60"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="62"/>
-      <c r="K62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="K62" s="60"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="62"/>
-      <c r="O62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="O62" s="60"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="62"/>
-      <c r="S62" s="76"/>
+      <c r="Q62" s="61"/>
+      <c r="S62" s="75"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="75"/>
-      <c r="W62" s="76"/>
+      <c r="U62" s="74"/>
+      <c r="W62" s="75"/>
       <c r="X62" s="5"/>
-      <c r="Y62" s="75"/>
+      <c r="Y62" s="74"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="145"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="146"/>
       <c r="E63" s="34"/>
-      <c r="G63" s="61"/>
+      <c r="G63" s="60"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="62"/>
-      <c r="K63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="K63" s="60"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="62"/>
-      <c r="O63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="O63" s="60"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="62"/>
-      <c r="S63" s="76"/>
+      <c r="Q63" s="61"/>
+      <c r="S63" s="75"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="75"/>
-      <c r="W63" s="76"/>
+      <c r="U63" s="74"/>
+      <c r="W63" s="75"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="75"/>
+      <c r="Y63" s="74"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="145"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="146"/>
       <c r="E64" s="34"/>
-      <c r="G64" s="61"/>
+      <c r="G64" s="60"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="62"/>
-      <c r="K64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="K64" s="60"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="62"/>
-      <c r="O64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="O64" s="60"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="62"/>
-      <c r="S64" s="76"/>
+      <c r="Q64" s="61"/>
+      <c r="S64" s="75"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="75"/>
-      <c r="W64" s="76"/>
+      <c r="U64" s="74"/>
+      <c r="W64" s="75"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="75"/>
+      <c r="Y64" s="74"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
-      <c r="B65" s="146"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="148"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="149"/>
       <c r="E65" s="35"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="69"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="69"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="69"/>
-      <c r="S65" s="79"/>
-      <c r="T65" s="80"/>
-      <c r="U65" s="81"/>
-      <c r="W65" s="79"/>
-      <c r="X65" s="80"/>
-      <c r="Y65" s="81"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="68"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="68"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="67"/>
+      <c r="Q65" s="68"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="79"/>
+      <c r="U65" s="80"/>
+      <c r="W65" s="78"/>
+      <c r="X65" s="79"/>
+      <c r="Y65" s="80"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5143,26 +5185,26 @@
     <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:J26 F8:J25 K8:AG26">
@@ -5397,27 +5439,28 @@
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I65 Q55:Q65 U55:U65 Y55:Y65 M55:M65 I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 Q42:Q52 I42:I52 M42:M52" xr:uid="{53714382-D0A9-47D2-8C1D-AEC48E8210E1}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{482B0EC0-02CE-4334-BE6E-8AA5B58C3E7D}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29:Y40 Q29:Q40 M29:M40 I29:I40 U29:U40 U42:U52 Y42:Y52" xr:uid="{416DF49E-E122-4C41-9478-162FD3971929}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 I29:I40 M29:M40 Q29:Q40 U29:U40 Y29:Y40 I42:I52 M42:M52 Q42:Q52 U42:U52 Y42:Y52 I55:I65 M55:M65 Q55:Q65 U55:U65 Y55:Y65" xr:uid="{C19C7649-C548-427C-922C-A5F649FC36E3}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5630,27 +5673,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5675,9 +5706,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E94BA94-23FB-4506-81E3-CCD0167B7675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0E2000-7C07-4E49-B75A-E5D46C2D9E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -1996,6 +1996,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2023,50 +2062,121 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2779,11 +2889,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="firstColumn" dxfId="60"/>
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="72"/>
+      <tableStyleElement type="headerRow" dxfId="71"/>
+      <tableStyleElement type="firstColumn" dxfId="70"/>
+      <tableStyleElement type="firstRowStripe" dxfId="69"/>
+      <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3406,8 +3516,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,32 +3578,32 @@
         <v>24</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="156" t="s">
+      <c r="K4" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="O4" s="156" t="s">
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="O4" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="S4" s="153" t="s">
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="S4" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="154"/>
-      <c r="U4" s="155"/>
-      <c r="W4" s="153" t="s">
+      <c r="T4" s="136"/>
+      <c r="U4" s="137"/>
+      <c r="W4" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="155"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="137"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4146,35 +4256,35 @@
       <c r="C27" s="127"/>
       <c r="D27" s="127"/>
       <c r="E27" s="128"/>
-      <c r="G27" s="135" t="s">
+      <c r="G27" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="136"/>
-      <c r="I27" s="137"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="150"/>
       <c r="J27" s="93"/>
-      <c r="K27" s="135" t="s">
+      <c r="K27" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="136"/>
-      <c r="M27" s="137"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="150"/>
       <c r="N27" s="93"/>
-      <c r="O27" s="138" t="s">
+      <c r="O27" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="P27" s="139"/>
-      <c r="Q27" s="140"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="153"/>
       <c r="R27" s="94"/>
-      <c r="S27" s="141" t="s">
+      <c r="S27" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="T27" s="142"/>
-      <c r="U27" s="143"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="156"/>
       <c r="V27" s="94"/>
-      <c r="W27" s="141" t="s">
+      <c r="W27" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="X27" s="142"/>
-      <c r="Y27" s="143"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="156"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="129" t="s">
@@ -4290,7 +4400,7 @@
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="101"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="102"/>
       <c r="D31" s="101"/>
       <c r="E31" s="103"/>
@@ -4314,7 +4424,7 @@
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="101"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="102"/>
       <c r="D32" s="101"/>
       <c r="E32" s="103"/>
@@ -4338,7 +4448,7 @@
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="101"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="102"/>
       <c r="D33" s="101"/>
       <c r="E33" s="103"/>
@@ -4362,7 +4472,7 @@
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="101"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="102"/>
       <c r="D34" s="101"/>
       <c r="E34" s="103"/>
@@ -4386,7 +4496,7 @@
       <c r="A35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="101"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="102"/>
       <c r="D35" s="101"/>
       <c r="E35" s="103"/>
@@ -4410,7 +4520,7 @@
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="101"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="102"/>
       <c r="D36" s="101"/>
       <c r="E36" s="103"/>
@@ -4434,7 +4544,7 @@
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="101"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="102"/>
       <c r="D37" s="101"/>
       <c r="E37" s="103"/>
@@ -4458,7 +4568,7 @@
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="102"/>
       <c r="D38" s="101"/>
       <c r="E38" s="103"/>
@@ -4482,7 +4592,7 @@
       <c r="A39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="104"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="105"/>
       <c r="D39" s="104"/>
       <c r="E39" s="106"/>
@@ -4918,11 +5028,11 @@
       <c r="A55" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="150" t="s">
+      <c r="B55" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="151"/>
-      <c r="D55" s="152"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="141"/>
       <c r="E55" s="33"/>
       <c r="G55" s="60"/>
       <c r="H55" s="5"/>
@@ -4944,11 +5054,11 @@
       <c r="A56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="144" t="s">
+      <c r="B56" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="146"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="144"/>
       <c r="E56" s="34"/>
       <c r="G56" s="60"/>
       <c r="H56" s="5"/>
@@ -4970,11 +5080,11 @@
       <c r="A57" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="144" t="s">
+      <c r="B57" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="146"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="144"/>
       <c r="E57" s="34"/>
       <c r="G57" s="60"/>
       <c r="H57" s="5"/>
@@ -4996,11 +5106,11 @@
       <c r="A58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="144" t="s">
+      <c r="B58" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="145"/>
-      <c r="D58" s="146"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
       <c r="E58" s="34"/>
       <c r="G58" s="60"/>
       <c r="H58" s="5"/>
@@ -5020,9 +5130,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
-      <c r="B59" s="144"/>
-      <c r="C59" s="145"/>
-      <c r="D59" s="146"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="144"/>
       <c r="E59" s="34"/>
       <c r="G59" s="60"/>
       <c r="H59" s="5"/>
@@ -5064,9 +5174,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="144"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="146"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="144"/>
       <c r="E61" s="34"/>
       <c r="G61" s="60"/>
       <c r="H61" s="5"/>
@@ -5086,9 +5196,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="144"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="146"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
       <c r="E62" s="34"/>
       <c r="G62" s="60"/>
       <c r="H62" s="5"/>
@@ -5108,9 +5218,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="145"/>
-      <c r="D63" s="146"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="144"/>
       <c r="E63" s="34"/>
       <c r="G63" s="60"/>
       <c r="H63" s="5"/>
@@ -5130,9 +5240,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="144"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="146"/>
+      <c r="B64" s="142"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="144"/>
       <c r="E64" s="34"/>
       <c r="G64" s="60"/>
       <c r="H64" s="5"/>
@@ -5152,9 +5262,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
-      <c r="B65" s="147"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="149"/>
+      <c r="B65" s="145"/>
+      <c r="C65" s="146"/>
+      <c r="D65" s="147"/>
       <c r="E65" s="35"/>
       <c r="G65" s="66"/>
       <c r="H65" s="67"/>
@@ -5185,109 +5295,141 @@
     <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:J26 F8:J25 K8:AG26">
-    <cfRule type="expression" dxfId="57" priority="61">
+    <cfRule type="expression" dxfId="67" priority="71">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="62">
+    <cfRule type="expression" dxfId="66" priority="72">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55:Y65">
-    <cfRule type="expression" dxfId="55" priority="59">
+    <cfRule type="expression" dxfId="65" priority="69">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="60">
+    <cfRule type="expression" dxfId="64" priority="70">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:U65">
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="63" priority="67">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="58">
+    <cfRule type="expression" dxfId="62" priority="68">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55:Q65">
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="60" priority="64">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:E25">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:M65">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:AE53">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="53" priority="47">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="52" priority="48">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:AG34 A41:Y41 AA35:AG52 B34 A34:A36 C34:F36 A28:AG28 A27:F27 J27 N27 R27:AG27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A42:R52">
-    <cfRule type="expression" dxfId="41" priority="35">
+  <conditionalFormatting sqref="Z29:AG34 A41:Y41 AA35:AG52 A28:AG28 A27:F27 J27 N27 R27:AG27 N29:N40 J29:J40 R29:R40 A42:R52 A29:F33 B34 A34:A37 C34:F37 A38:F40">
+    <cfRule type="expression" dxfId="51" priority="45">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="50" priority="46">
       <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$C34="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O30">
+    <cfRule type="expression" dxfId="47" priority="41">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="42">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29:Q30">
+    <cfRule type="expression" dxfId="45" priority="39">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="40">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31:O40">
+    <cfRule type="expression" dxfId="43" priority="37">
+      <formula>$C31="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>$D31="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31:Q40">
+    <cfRule type="expression" dxfId="41" priority="35">
+      <formula>$C31="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="36">
+      <formula>$D31="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K30">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:M30">
     <cfRule type="expression" dxfId="37" priority="31">
       <formula>$C29="x"</formula>
     </cfRule>
@@ -5295,15 +5437,15 @@
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29:Q30">
+  <conditionalFormatting sqref="K31:K40">
     <cfRule type="expression" dxfId="35" priority="29">
-      <formula>$C29="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="30">
-      <formula>$D29="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31:O40">
+  <conditionalFormatting sqref="L31:M40">
     <cfRule type="expression" dxfId="33" priority="27">
       <formula>$C31="x"</formula>
     </cfRule>
@@ -5311,15 +5453,15 @@
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q40">
+  <conditionalFormatting sqref="G29:G30">
     <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$C31="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$D31="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K30">
+  <conditionalFormatting sqref="H29:I30">
     <cfRule type="expression" dxfId="29" priority="23">
       <formula>$C29="x"</formula>
     </cfRule>
@@ -5327,15 +5469,15 @@
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:M30">
+  <conditionalFormatting sqref="G31:G40">
     <cfRule type="expression" dxfId="27" priority="21">
-      <formula>$C29="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="22">
-      <formula>$D29="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K40">
+  <conditionalFormatting sqref="H31:I40">
     <cfRule type="expression" dxfId="25" priority="19">
       <formula>$C31="x"</formula>
     </cfRule>
@@ -5343,100 +5485,84 @@
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:M40">
+  <conditionalFormatting sqref="S29:Y39">
     <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$C31="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G30">
-    <cfRule type="expression" dxfId="21" priority="15">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I30">
-    <cfRule type="expression" dxfId="19" priority="13">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G40">
-    <cfRule type="expression" dxfId="17" priority="11">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I40">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:Y39">
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:Y51">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:Y52">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>$C52="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>$D52="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:Y40">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="5" priority="39">
+    <cfRule type="expression" dxfId="15" priority="49">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="40">
+    <cfRule type="expression" dxfId="14" priority="50">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="13" priority="51">
       <formula>$C38="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="12" priority="52">
       <formula>$D38="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="11" priority="53">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
+    <cfRule type="expression" dxfId="10" priority="54">
       <formula>$D40="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C35="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D35="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C36="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D36="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C37="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -5455,12 +5581,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5673,15 +5796,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5706,18 +5841,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Pipedrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32591F9-B7FA-408F-8CDB-0EBF9593A70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CCEA58-B1C8-4C00-8820-474254BBAF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1954,45 +1954,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2018,6 +1979,45 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3364,8 +3364,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y55" activeCellId="21" sqref="I55:I65 I42:I52 I29:I39 I40 I7:I25 M7:M25 M29:M40 M42:M52 M55:M65 Q55:Q64 Q65 Q42:Q52 Q29:Q40 Q7:Q25 U7:U25 Y7:Y25 Y29:Y40 U29:U40 U42:U52 Y42:Y52 U55:U65 Y55:Y65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,32 +3426,32 @@
         <v>24</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="139" t="s">
+      <c r="K4" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="O4" s="139" t="s">
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="O4" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="S4" s="136" t="s">
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="S4" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="137"/>
-      <c r="U4" s="138"/>
-      <c r="W4" s="136" t="s">
+      <c r="T4" s="155"/>
+      <c r="U4" s="156"/>
+      <c r="W4" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="138"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4104,35 +4104,35 @@
       <c r="C27" s="128"/>
       <c r="D27" s="128"/>
       <c r="E27" s="129"/>
-      <c r="G27" s="149" t="s">
+      <c r="G27" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="150"/>
-      <c r="I27" s="151"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="138"/>
       <c r="J27" s="94"/>
-      <c r="K27" s="149" t="s">
+      <c r="K27" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="150"/>
-      <c r="M27" s="151"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
       <c r="N27" s="94"/>
-      <c r="O27" s="152" t="s">
+      <c r="O27" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="154"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="141"/>
       <c r="R27" s="95"/>
-      <c r="S27" s="155" t="s">
+      <c r="S27" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="156"/>
-      <c r="U27" s="157"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="144"/>
       <c r="V27" s="95"/>
-      <c r="W27" s="155" t="s">
+      <c r="W27" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="157"/>
+      <c r="X27" s="143"/>
+      <c r="Y27" s="144"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="130" t="s">
@@ -4876,11 +4876,11 @@
       <c r="A55" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="140" t="s">
+      <c r="B55" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="141"/>
-      <c r="D55" s="142"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="153"/>
       <c r="E55" s="33"/>
       <c r="G55" s="61"/>
       <c r="H55" s="5"/>
@@ -4902,11 +4902,11 @@
       <c r="A56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="143" t="s">
+      <c r="B56" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="144"/>
-      <c r="D56" s="145"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="147"/>
       <c r="E56" s="34"/>
       <c r="G56" s="61"/>
       <c r="H56" s="5"/>
@@ -4928,11 +4928,11 @@
       <c r="A57" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="144"/>
-      <c r="D57" s="145"/>
+      <c r="C57" s="146"/>
+      <c r="D57" s="147"/>
       <c r="E57" s="34"/>
       <c r="G57" s="61"/>
       <c r="H57" s="5"/>
@@ -4954,11 +4954,11 @@
       <c r="A58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="143" t="s">
+      <c r="B58" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="144"/>
-      <c r="D58" s="145"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="147"/>
       <c r="E58" s="34"/>
       <c r="G58" s="61"/>
       <c r="H58" s="5"/>
@@ -4978,9 +4978,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="145"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="147"/>
       <c r="E59" s="34"/>
       <c r="G59" s="61"/>
       <c r="H59" s="5"/>
@@ -5022,9 +5022,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="145"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="147"/>
       <c r="E61" s="34"/>
       <c r="G61" s="61"/>
       <c r="H61" s="5"/>
@@ -5044,9 +5044,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="145"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="34"/>
       <c r="G62" s="61"/>
       <c r="H62" s="5"/>
@@ -5066,9 +5066,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="145"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="147"/>
       <c r="E63" s="34"/>
       <c r="G63" s="61"/>
       <c r="H63" s="5"/>
@@ -5088,9 +5088,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="145"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="34"/>
       <c r="G64" s="61"/>
       <c r="H64" s="5"/>
@@ -5110,9 +5110,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
-      <c r="B65" s="146"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="148"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="150"/>
       <c r="E65" s="35"/>
       <c r="G65" s="67"/>
       <c r="H65" s="68"/>
@@ -5143,26 +5143,26 @@
     <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:J26 F8:J25 K8:AG26">
@@ -5397,15 +5397,12 @@
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I65 Q55:Q65 U55:U65 Y55:Y65 M55:M65 I7:I25 M7:M25 Q7:Q25 U7:U25 Y7:Y25 Q42:Q52 I42:I52 M42:M52" xr:uid="{53714382-D0A9-47D2-8C1D-AEC48E8210E1}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{482B0EC0-02CE-4334-BE6E-8AA5B58C3E7D}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29:Y40 Q29:Q40 M29:M40 I29:I40 U29:U40 U42:U52 Y42:Y52" xr:uid="{416DF49E-E122-4C41-9478-162FD3971929}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I65 I42:I52 I29:I39 I40 I7:I25 M7:M25 M29:M40 M42:M52 M55:M65 Q55:Q64 Q65 Q42:Q52 Q29:Q40 Q7:Q25 U7:U25 Y7:Y25 Y29:Y40 U29:U40 U42:U52 Y42:Y52 U55:U65 Y55:Y65" xr:uid="{589383A5-A6CC-446C-89FE-DCF77BB1D015}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5415,12 +5412,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -5629,6 +5620,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5639,23 +5636,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5674,6 +5654,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CCEA58-B1C8-4C00-8820-474254BBAF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E4E171-8D8A-457F-A73E-FA2454B5DB0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>Default Value</t>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -291,6 +288,9 @@
   </si>
   <si>
     <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1954,6 +1954,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1979,45 +2018,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3365,7 +3365,7 @@
   <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y55" activeCellId="21" sqref="I55:I65 I42:I52 I29:I39 I40 I7:I25 M7:M25 M29:M40 M42:M52 M55:M65 Q55:Q64 Q65 Q42:Q52 Q29:Q40 Q7:Q25 U7:U25 Y7:Y25 Y29:Y40 U29:U40 U42:U52 Y42:Y52 U55:U65 Y55:Y65"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3426,39 +3426,41 @@
         <v>24</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="157" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
+      <c r="G4" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="157" t="s">
+      <c r="K4" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="O4" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="S4" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="O4" s="157" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="S4" s="154" t="s">
+      <c r="T4" s="137"/>
+      <c r="U4" s="138"/>
+      <c r="W4" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="155"/>
-      <c r="U4" s="156"/>
-      <c r="W4" s="154" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="138"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="52" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="53"/>
       <c r="D6" s="134"/>
       <c r="E6" s="135" t="s">
@@ -3538,9 +3540,7 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>29</v>
-      </c>
+      <c r="B8" s="46"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="37"/>
@@ -3548,7 +3548,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>15</v>
@@ -3579,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="62" t="s">
         <v>15</v>
@@ -3614,7 +3614,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="62" t="s">
         <v>15</v>
@@ -3642,10 +3642,10 @@
       <c r="I11" s="62"/>
       <c r="J11" s="1"/>
       <c r="K11" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="M11" s="62" t="s">
         <v>15</v>
@@ -3673,10 +3673,10 @@
       <c r="I12" s="60"/>
       <c r="J12" s="1"/>
       <c r="K12" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="M12" s="60" t="s">
         <v>15</v>
@@ -3704,10 +3704,10 @@
       <c r="I13" s="64"/>
       <c r="J13" s="50"/>
       <c r="K13" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="51" t="s">
         <v>46</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>47</v>
       </c>
       <c r="M13" s="64" t="s">
         <v>15</v>
@@ -3735,10 +3735,10 @@
       <c r="I14" s="66"/>
       <c r="J14" s="1"/>
       <c r="K14" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="M14" s="66" t="s">
         <v>15</v>
@@ -3766,10 +3766,10 @@
       <c r="I15" s="62"/>
       <c r="J15" s="1"/>
       <c r="K15" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="M15" s="62" t="s">
         <v>15</v>
@@ -3786,17 +3786,17 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="37"/>
       <c r="G16" s="61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="62" t="s">
         <v>15</v>
@@ -3817,17 +3817,17 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="37"/>
       <c r="G17" s="61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="62" t="s">
         <v>15</v>
@@ -3848,17 +3848,17 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="47"/>
       <c r="D18" s="48"/>
       <c r="E18" s="49"/>
       <c r="G18" s="61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="62" t="s">
         <v>15</v>
@@ -3879,17 +3879,17 @@
     </row>
     <row r="19" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="37"/>
       <c r="G19" s="63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="64" t="s">
         <v>15</v>
@@ -3924,10 +3924,10 @@
       <c r="L20" s="5"/>
       <c r="M20" s="62"/>
       <c r="O20" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="Q20" s="62" t="s">
         <v>15</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="24"/>
@@ -3955,10 +3955,10 @@
       <c r="L21" s="6"/>
       <c r="M21" s="60"/>
       <c r="O21" s="59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="60" t="s">
         <v>15</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="24"/>
@@ -3986,10 +3986,10 @@
       <c r="L22" s="6"/>
       <c r="M22" s="60"/>
       <c r="O22" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="60" t="s">
         <v>15</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="24"/>
@@ -4017,10 +4017,10 @@
       <c r="L23" s="6"/>
       <c r="M23" s="60"/>
       <c r="O23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="Q23" s="60" t="s">
         <v>15</v>
@@ -4098,48 +4098,48 @@
     </row>
     <row r="27" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="128"/>
       <c r="C27" s="128"/>
       <c r="D27" s="128"/>
       <c r="E27" s="129"/>
-      <c r="G27" s="136" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
+      <c r="G27" s="149" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="150"/>
+      <c r="I27" s="151"/>
       <c r="J27" s="94"/>
-      <c r="K27" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
+      <c r="K27" s="149" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="150"/>
+      <c r="M27" s="151"/>
       <c r="N27" s="94"/>
-      <c r="O27" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="141"/>
+      <c r="O27" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="154"/>
       <c r="R27" s="95"/>
-      <c r="S27" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="T27" s="143"/>
-      <c r="U27" s="144"/>
+      <c r="S27" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="156"/>
+      <c r="U27" s="157"/>
       <c r="V27" s="95"/>
-      <c r="W27" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="X27" s="143"/>
-      <c r="Y27" s="144"/>
+      <c r="W27" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="157"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="131" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" s="131" t="s">
-        <v>56</v>
       </c>
       <c r="C28" s="132"/>
       <c r="D28" s="132"/>
@@ -4194,15 +4194,15 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="100" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" s="100" t="s">
-        <v>58</v>
       </c>
       <c r="C29" s="101"/>
       <c r="D29" s="100"/>
       <c r="E29" s="99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="59"/>
       <c r="H29" s="6"/>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="100"/>
       <c r="C30" s="101"/>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="102"/>
       <c r="C31" s="103"/>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" s="103"/>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="102"/>
       <c r="C33" s="103"/>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="102"/>
       <c r="C35" s="103"/>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="102"/>
       <c r="C36" s="103"/>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="102"/>
       <c r="C37" s="103"/>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="102"/>
       <c r="C38" s="103"/>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="105"/>
       <c r="C39" s="106"/>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="125"/>
       <c r="D41" s="125"/>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="97"/>
       <c r="C42" s="98"/>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="102"/>
       <c r="C43" s="103"/>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="102"/>
       <c r="C44" s="103"/>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="102"/>
       <c r="C45" s="103"/>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="102"/>
       <c r="C46" s="103"/>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="102"/>
       <c r="C47" s="103"/>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="102"/>
       <c r="C48" s="103"/>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="102"/>
       <c r="C49" s="103"/>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="102"/>
       <c r="C50" s="103"/>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="105"/>
       <c r="C51" s="106"/>
@@ -4876,11 +4876,11 @@
       <c r="A55" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="152"/>
-      <c r="D55" s="153"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="142"/>
       <c r="E55" s="33"/>
       <c r="G55" s="61"/>
       <c r="H55" s="5"/>
@@ -4902,11 +4902,11 @@
       <c r="A56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="145" t="s">
+      <c r="B56" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="147"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="34"/>
       <c r="G56" s="61"/>
       <c r="H56" s="5"/>
@@ -4928,11 +4928,11 @@
       <c r="A57" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="145" t="s">
+      <c r="B57" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="146"/>
-      <c r="D57" s="147"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="34"/>
       <c r="G57" s="61"/>
       <c r="H57" s="5"/>
@@ -4954,11 +4954,11 @@
       <c r="A58" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="145" t="s">
+      <c r="B58" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="146"/>
-      <c r="D58" s="147"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
       <c r="E58" s="34"/>
       <c r="G58" s="61"/>
       <c r="H58" s="5"/>
@@ -4978,9 +4978,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="147"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
       <c r="E59" s="34"/>
       <c r="G59" s="61"/>
       <c r="H59" s="5"/>
@@ -5022,9 +5022,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="147"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="34"/>
       <c r="G61" s="61"/>
       <c r="H61" s="5"/>
@@ -5044,9 +5044,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="147"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="34"/>
       <c r="G62" s="61"/>
       <c r="H62" s="5"/>
@@ -5066,9 +5066,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="147"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="34"/>
       <c r="G63" s="61"/>
       <c r="H63" s="5"/>
@@ -5088,9 +5088,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="147"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="145"/>
       <c r="E64" s="34"/>
       <c r="G64" s="61"/>
       <c r="H64" s="5"/>
@@ -5110,9 +5110,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="30"/>
-      <c r="B65" s="148"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="150"/>
+      <c r="B65" s="146"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="148"/>
       <c r="E65" s="35"/>
       <c r="G65" s="67"/>
       <c r="H65" s="68"/>
@@ -5143,26 +5143,26 @@
     <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:J26 F8:J25 K8:AG26">
@@ -5412,6 +5412,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -5620,12 +5626,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5636,6 +5636,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5654,23 +5671,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E4E171-8D8A-457F-A73E-FA2454B5DB0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636BC84D-19F2-46F7-842F-5460DBBF3362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!#REF!,Specifications!#REF!,Specifications!$C$7:$D$25</definedName>
-    <definedName name="Field_type">Specifications!$I$7:$I$25,Specifications!$Q$7:$Q$25,Specifications!#REF!,Specifications!$U$7:$U$25,Specifications!$Y$7:$Y$25,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$55:$I$65,Specifications!$Q$55:$Q$65,Specifications!#REF!,Specifications!$U$55:$U$65,Specifications!$Y$55:$Y$65</definedName>
+    <definedName name="checkbox">Specifications!#REF!,Specifications!#REF!,Specifications!$C$7:$D$28</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$28,Specifications!$Q$7:$Q$28,Specifications!#REF!,Specifications!$U$7:$U$28,Specifications!$Y$7:$Y$28,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$58:$I$65,Specifications!$Q$58:$Q$65,Specifications!#REF!,Specifications!$U$58:$U$65,Specifications!$Y$58:$Y$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t>Company</t>
   </si>
@@ -292,12 +295,24 @@
   <si>
     <t>Notes</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Example Not used field</t>
+  </si>
+  <si>
+    <t>Example Mandatory field</t>
+  </si>
+  <si>
+    <t>(= Fields with automatic value)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,13 +394,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -425,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="105">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -444,17 +452,6 @@
       <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -496,115 +493,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
@@ -618,57 +580,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -914,19 +826,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -1029,7 +928,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1040,7 +941,9 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1048,6 +951,201 @@
         <color rgb="FF26292C"/>
       </left>
       <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF26292C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF26292C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF26292C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF26292C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF868E96"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF868E96"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF868E96"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF868E96"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF868E96"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF868E96"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF868E96"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF868E96"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF868E96"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF868E96"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF868E96"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF868E96"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF868E96"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF868E96"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1055,7 +1153,79 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF26292C"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF26292C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF26292C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF26292C"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF26292C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF26292C"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="thick">
         <color rgb="FF26292C"/>
       </right>
@@ -1070,363 +1240,12 @@
         <color rgb="FF26292C"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
+      <top style="thick">
         <color rgb="FF26292C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF26292C"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
         <color rgb="FF26292C"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF26292C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF26292C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF26292C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF868E96"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF868E96"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF868E96"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF868E96"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF868E96"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF868E96"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF868E96"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF868E96"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF868E96"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF868E96"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF868E96"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF868E96"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF868E96"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF868E96"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF26292C"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF26292C"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1435,7 +1254,9 @@
       <top style="thick">
         <color rgb="FF26292C"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FF26292C"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1446,67 +1267,6 @@
       <top style="thick">
         <color rgb="FF26292C"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF26292C"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF26292C"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF26292C"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF26292C"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF26292C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF26292C"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF26292C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF26292C"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF26292C"/>
-      </top>
       <bottom style="thick">
         <color rgb="FF26292C"/>
       </bottom>
@@ -1751,280 +1511,233 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="55">
     <dxf>
       <font>
         <b val="0"/>
@@ -2187,7 +1900,29 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2473,28 +2208,6 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
@@ -2517,96 +2230,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2737,11 +2362,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="firstColumn" dxfId="60"/>
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="firstColumn" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2852,13 +2477,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2923,13 +2548,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>14255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>6928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2994,13 +2619,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>197826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3364,8 +2989,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,7 +3013,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1"/>
@@ -3399,7 +3024,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="1"/>
@@ -3410,1754 +3035,1806 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="G3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="G4" s="139" t="s">
+      <c r="E4" s="24"/>
+      <c r="G4" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="139" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="O4" s="139" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="O4" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="S4" s="136" t="s">
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="S4" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="137"/>
-      <c r="U4" s="138"/>
-      <c r="W4" s="136" t="s">
+      <c r="T4" s="104"/>
+      <c r="U4" s="105"/>
+      <c r="W4" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="138"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="105"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="135" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="43" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="P6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="70" t="s">
+      <c r="S6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="71" t="s">
+      <c r="T6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="70" t="s">
+      <c r="W6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="71" t="s">
+      <c r="X6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="72" t="s">
+      <c r="Y6" s="51" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="36"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="60"/>
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="60"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="60"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="74"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="74"/>
-    </row>
-    <row r="8" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="44"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="45"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="45"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="53"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="53"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="28"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="45"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="45"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="53"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="53"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="28"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="45"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="45"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="53"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="53"/>
+    </row>
+    <row r="10" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="37"/>
-      <c r="G8" s="61" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="28"/>
+      <c r="G10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I10" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="62"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="62"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="84"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="75"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="45"/>
+      <c r="N10"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="45"/>
+      <c r="R10"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="63"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="54"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="37"/>
-      <c r="G9" s="61" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="28"/>
+      <c r="G11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="62"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="62"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="84"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="75"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="45"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="45"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="63"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="54"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="37"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="61" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="28"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="62"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="75"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="45"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="63"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="54"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="37"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="61" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="28"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="62"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="75"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="59"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="60"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="75"/>
-    </row>
-    <row r="13" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="37"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="64"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="87"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="78"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="45"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="63"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="54"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="37"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="66"/>
+        <v>2</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="28"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="66" t="s">
+      <c r="M14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="65"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="66"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="75"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O14" s="44"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="45"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="63"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="54"/>
+    </row>
+    <row r="15" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="37"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="62"/>
+        <v>3</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="28"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="62" t="s">
+      <c r="M15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="61"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="62"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="84"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="75"/>
+      <c r="N15"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="45"/>
+      <c r="R15"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="66"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="57"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="37"/>
-      <c r="G16" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="28"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="62"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="62"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="84"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="75"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="45"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="63"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="54"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="28"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="44"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="45"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="63"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="54"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="28"/>
+      <c r="G18" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="45"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="45"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="63"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="54"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="37"/>
-      <c r="G17" s="61" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="28"/>
+      <c r="G19" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I19" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="62"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="62"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="84"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="75"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="45"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="45"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="63"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="54"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="G18" s="61" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="28"/>
+      <c r="G20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="62"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="62"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="84"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="75"/>
-    </row>
-    <row r="19" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="45"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="45"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="63"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="54"/>
+    </row>
+    <row r="21" spans="1:25" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="37"/>
-      <c r="G19" s="63" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="28"/>
+      <c r="G21" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I21" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="64"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="64"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="87"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="78"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="45"/>
+      <c r="N21"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="45"/>
+      <c r="R21"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="66"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="57"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="37"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="62"/>
-      <c r="O20" s="61" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="28"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="45"/>
+      <c r="O22" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="62" t="s">
+      <c r="Q22" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="82"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="84"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="75"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="63"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="54"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="37"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="60"/>
-      <c r="O21" s="59" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="28"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="45"/>
+      <c r="O23" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="60" t="s">
+      <c r="Q23" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="88"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="90"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="74"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="S23" s="67"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="69"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="53"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="37"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="60"/>
-      <c r="O22" s="59" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="28"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="45"/>
+      <c r="O24" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="60" t="s">
+      <c r="Q24" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S22" s="88"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="90"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="74"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="S24" s="67"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="69"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="53"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="37"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="60"/>
-      <c r="O23" s="59" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="28"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="45"/>
+      <c r="O25" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q23" s="60" t="s">
+      <c r="Q25" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="S23" s="73"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="74"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="74"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="60"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="60"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="74"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="74"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="38"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="69"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="81"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="81"/>
-    </row>
-    <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="8"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="9"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="53"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="53"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="28"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="9"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="9"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="55"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="9"/>
-    </row>
-    <row r="27" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="127" t="s">
+      <c r="K26" s="44"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="45"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="45"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="53"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="53"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="28"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="45"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="45"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="53"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="53"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="29"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="48"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="48"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="60"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="60"/>
+    </row>
+    <row r="29" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="7"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="8"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="8"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="40"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129"/>
-      <c r="G27" s="149" t="s">
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="G30" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="150"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="149" t="s">
+      <c r="H30" s="117"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="L27" s="150"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="152" t="s">
+      <c r="L30" s="117"/>
+      <c r="M30" s="118"/>
+      <c r="O30" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="155" t="s">
+      <c r="P30" s="120"/>
+      <c r="Q30" s="121"/>
+      <c r="S30" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="T27" s="156"/>
-      <c r="U27" s="157"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="155" t="s">
+      <c r="T30" s="123"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="157"/>
-    </row>
-    <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="130" t="s">
+      <c r="X30" s="123"/>
+      <c r="Y30" s="124"/>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="131" t="s">
+      <c r="B31" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="133" t="s">
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="114" t="s">
+      <c r="G31" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="113" t="s">
+      <c r="H31" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="115" t="s">
+      <c r="I31" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="114" t="s">
+      <c r="J31" s="1"/>
+      <c r="K31" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="113" t="s">
+      <c r="L31" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="115" t="s">
+      <c r="M31" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="56" t="s">
+      <c r="O31" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="57" t="s">
+      <c r="P31" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="Q28" s="58" t="s">
+      <c r="Q31" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="70" t="s">
+      <c r="S31" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="71" t="s">
+      <c r="T31" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="72" t="s">
+      <c r="U31" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="W28" s="70" t="s">
+      <c r="W31" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="X28" s="71" t="s">
+      <c r="X31" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="Y28" s="72" t="s">
+      <c r="Y31" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="32" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="99" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="62"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="62"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="62"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="75"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="75"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="99"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="62"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="62"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="62"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="75"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="75"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="104"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="62"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="62"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="62"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="75"/>
-      <c r="W31" s="76"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="75"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="104"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="62"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="62"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="62"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="75"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="75"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="45"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="45"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="54"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="54"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="104"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="62"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="62"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="62"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="75"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="75"/>
+        <v>59</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="28"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="45"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="45"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="54"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="54"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="104"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="62"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="62"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="62"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="75"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="75"/>
+        <v>60</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="28"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="45"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="45"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="54"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="54"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="104"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="62"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="62"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="62"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="75"/>
-      <c r="W35" s="76"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="75"/>
+        <v>61</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="28"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="45"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="45"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="54"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="54"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="104"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="62"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="62"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="62"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="75"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="75"/>
+        <v>62</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="28"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="45"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="45"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="54"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="54"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="104"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="62"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="62"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="62"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="75"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="75"/>
+        <v>63</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="28"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="45"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="45"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="54"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="54"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="104"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="62"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="62"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="62"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="75"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="75"/>
+        <v>64</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="28"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="45"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="45"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="54"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="54"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="28"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="45"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="45"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="54"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="54"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="28"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="45"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="45"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="54"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="54"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="28"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="45"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="45"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="54"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="54"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="107"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="60"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="60"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="60"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="74"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="74"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="107"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="69"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="69"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="81"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="81"/>
-    </row>
-    <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="111" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="28"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="45"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="45"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="53"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="53"/>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="48"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="48"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="60"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="60"/>
+    </row>
+    <row r="44" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B44" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125" t="s">
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G44" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="57" t="s">
+      <c r="H44" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I44" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K41" s="56" t="s">
+      <c r="J44" s="1"/>
+      <c r="K44" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L41" s="57" t="s">
+      <c r="L44" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M41" s="58" t="s">
+      <c r="M44" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O41" s="116" t="s">
+      <c r="O44" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="P41" s="117" t="s">
+      <c r="P44" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="Q41" s="118" t="s">
+      <c r="Q44" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="S41" s="122" t="s">
+      <c r="S44" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="T41" s="123" t="s">
+      <c r="T44" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="U41" s="124" t="s">
+      <c r="U44" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="W41" s="122" t="s">
+      <c r="W44" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="X41" s="123" t="s">
+      <c r="X44" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="Y41" s="124" t="s">
+      <c r="Y44" s="88" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
+    <row r="45" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="99"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="62"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="62"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="66"/>
-      <c r="S42" s="119"/>
-      <c r="T42" s="120"/>
-      <c r="U42" s="121"/>
-      <c r="W42" s="119"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="121"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="104"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="62"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="62"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="62"/>
-      <c r="S43" s="76"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="75"/>
-      <c r="W43" s="76"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="75"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="104"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="62"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="62"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="62"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="75"/>
-      <c r="W44" s="76"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="75"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="102"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="104"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="62"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="62"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="62"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="75"/>
-      <c r="W45" s="76"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="75"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="28"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="45"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="45"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="84"/>
+      <c r="U45" s="85"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="84"/>
+      <c r="Y45" s="85"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="104"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="62"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="62"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="62"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="75"/>
-      <c r="W46" s="76"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="75"/>
+        <v>60</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="28"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="45"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="45"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="54"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="54"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="104"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="62"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="62"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="62"/>
-      <c r="S47" s="76"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="75"/>
-      <c r="W47" s="76"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="75"/>
+        <v>61</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="28"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="45"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="45"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="54"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="54"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="104"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="62"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="62"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="62"/>
-      <c r="S48" s="76"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="75"/>
-      <c r="W48" s="76"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="75"/>
+        <v>62</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="28"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="45"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="45"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="54"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="54"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="104"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="62"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="62"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="62"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="75"/>
-      <c r="W49" s="76"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="75"/>
+        <v>63</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="28"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="45"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="45"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="54"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="54"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="104"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="62"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="62"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="62"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="75"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="75"/>
+        <v>64</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="28"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="45"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="45"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="54"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="54"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="28"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="45"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="45"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="54"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="54"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="28"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="45"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="45"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="54"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="54"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="28"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="45"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="45"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="54"/>
+      <c r="W53" s="55"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="54"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="105"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="107"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="60"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="60"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="60"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="74"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="74"/>
-    </row>
-    <row r="52" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="110"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="69"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="69"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="69"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="81"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="81"/>
-    </row>
-    <row r="53" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="K53" s="8"/>
-      <c r="M53" s="9"/>
-      <c r="O53" s="8"/>
-      <c r="Q53" s="9"/>
-      <c r="S53" s="8"/>
-      <c r="U53" s="9"/>
-      <c r="W53" s="8"/>
-      <c r="Y53" s="9"/>
-    </row>
-    <row r="54" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="126" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="28"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="45"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="45"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="53"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="53"/>
+    </row>
+    <row r="55" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="76"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="74"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="48"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="48"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="60"/>
+      <c r="W55" s="58"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="60"/>
+    </row>
+    <row r="56" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="7"/>
+      <c r="M56" s="8"/>
+      <c r="O56" s="7"/>
+      <c r="Q56" s="8"/>
+      <c r="S56" s="7"/>
+      <c r="U56" s="8"/>
+      <c r="W56" s="7"/>
+      <c r="Y56" s="8"/>
+    </row>
+    <row r="57" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B57" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="56" t="s">
+      <c r="G57" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H54" s="57" t="s">
+      <c r="H57" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I54" s="58" t="s">
+      <c r="I57" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K54" s="56" t="s">
+      <c r="J57" s="1"/>
+      <c r="K57" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L54" s="57" t="s">
+      <c r="L57" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M54" s="58" t="s">
+      <c r="M57" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O54" s="56" t="s">
+      <c r="O57" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="P54" s="57" t="s">
+      <c r="P57" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="Q54" s="58" t="s">
+      <c r="Q57" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="S54" s="70" t="s">
+      <c r="S57" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="T54" s="71" t="s">
+      <c r="T57" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="U54" s="72" t="s">
+      <c r="U57" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="W54" s="70" t="s">
+      <c r="W57" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="X54" s="71" t="s">
+      <c r="X57" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="Y54" s="72" t="s">
+      <c r="Y57" s="51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+    <row r="58" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="107"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="25"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="45"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="45"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="54"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="54"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="140" t="s">
+      <c r="B59" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="141"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="33"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="62"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="62"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="62"/>
-      <c r="S55" s="76"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="75"/>
-      <c r="W55" s="76"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="75"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+      <c r="C59" s="111"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="26"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="45"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="45"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="54"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="54"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="143" t="s">
+      <c r="B60" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="144"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="34"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="62"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="62"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="62"/>
-      <c r="S56" s="76"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="75"/>
-      <c r="W56" s="76"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="75"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+      <c r="C60" s="111"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="26"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="45"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="45"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="54"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="54"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="143" t="s">
+      <c r="B61" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="144"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="34"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="62"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="62"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="62"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="75"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="75"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="26"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="45"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="45"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="54"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="54"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="143" t="s">
+      <c r="B62" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="144"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="34"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="62"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="62"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="62"/>
-      <c r="S58" s="76"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="75"/>
-      <c r="W58" s="76"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="75"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="34"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="62"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="62"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="62"/>
-      <c r="S59" s="76"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="75"/>
-      <c r="W59" s="76"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="75"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="34"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="62"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="62"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="62"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="75"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="75"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="143"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="34"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="62"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="62"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="62"/>
-      <c r="S61" s="76"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="75"/>
-      <c r="W61" s="76"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="75"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="34"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="62"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="62"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="62"/>
-      <c r="S62" s="76"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="75"/>
-      <c r="W62" s="76"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="75"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="26"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="45"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="45"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="54"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="54"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="145"/>
-      <c r="E63" s="34"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="62"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="62"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="62"/>
-      <c r="S63" s="76"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="75"/>
-      <c r="W63" s="76"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="75"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="26"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="45"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="45"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="54"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="54"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="143"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="145"/>
-      <c r="E64" s="34"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="62"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="62"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="62"/>
-      <c r="S64" s="76"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="75"/>
-      <c r="W64" s="76"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="75"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="110"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="26"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="45"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="45"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="54"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="54"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="30"/>
-      <c r="B65" s="146"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="35"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="69"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="69"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="69"/>
-      <c r="S65" s="79"/>
-      <c r="T65" s="80"/>
-      <c r="U65" s="81"/>
-      <c r="W65" s="79"/>
-      <c r="X65" s="80"/>
-      <c r="Y65" s="81"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="27"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="48"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="48"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="48"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="60"/>
+      <c r="W65" s="58"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="60"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="A1" name="title"/>
-    <protectedRange sqref="A55:Y65" name="questionnaire"/>
-    <protectedRange sqref="F7:R25" name="Contact Fields"/>
-    <protectedRange sqref="S54:Y65 S4:Y26" name="customEntity"/>
-    <protectedRange sqref="A7:E25" name="Contact Fields_1"/>
-    <protectedRange sqref="S27:Y28 S41:Y41" name="customEntities"/>
-    <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_1"/>
+    <protectedRange sqref="A65:F65 A64:I64 A58:I63 S58:Y65 O58:Q64 K58:M64" name="questionnaire"/>
+    <protectedRange sqref="F7:I28 K7:M28 O7:Q28" name="Contact Fields"/>
+    <protectedRange sqref="S4:Y29 S57:Y65" name="customEntity"/>
+    <protectedRange sqref="A7:E28 B43:C43 B55:C55" name="Contact Fields_1"/>
+    <protectedRange sqref="S30:Y31 S44:Y44" name="customEntities"/>
+    <protectedRange sqref="A45:I54 A32:F42 A43 D43:F43 A55 D55:I55 K45:M55 O45:Q55 G65:I65 K65:M65 O65:Q65" name="Questionnaire_1"/>
   </protectedRanges>
-  <mergeCells count="20">
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
+  <mergeCells count="16">
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="W30:Y30"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="G30:I30"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
@@ -5165,243 +4842,211 @@
     <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A26:J26 F8:J25 K8:AG26">
-    <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="A29:I29 F10:I28 K28:M29 G7:I27 O28:Q29 S10:AG29 O58:Q64 K58:M64 G58:I64">
+    <cfRule type="expression" dxfId="49" priority="77">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="62">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="48" priority="78">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W55:Y65">
-    <cfRule type="expression" dxfId="55" priority="59">
+  <conditionalFormatting sqref="W58:Y65 S58:U65">
+    <cfRule type="expression" dxfId="47" priority="75">
+      <formula>$C58="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="76">
+      <formula>$D58="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:E28">
+    <cfRule type="expression" dxfId="45" priority="65">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="66">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:I56 K56:M56 O56:Q56 S56:AE56">
+    <cfRule type="expression" dxfId="43" priority="53">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="54">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z32:AG37 A44:I44 AA38:AG55 A31:I31 A30:F30 A43 A55 F32:F42 F45:F54 D43:F43 D55:I55 K55:M55 K31:M31 K44:M44 O44:Q44 O31:Q31 O55:Q55 S30:AG31 S44:Y44">
+    <cfRule type="expression" dxfId="41" priority="51">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="52">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="expression" dxfId="39" priority="43">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="44">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43:Q43">
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="42">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:M43">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" dxfId="31" priority="27">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="28">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:I43">
+    <cfRule type="expression" dxfId="29" priority="25">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="26">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32:Y42">
+    <cfRule type="expression" dxfId="27" priority="23">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="24">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S45:Y54">
+    <cfRule type="expression" dxfId="25" priority="21">
+      <formula>$C45="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="22">
+      <formula>$D45="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S55:Y55">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="60">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S55:U65">
-    <cfRule type="expression" dxfId="53" priority="57">
+  <conditionalFormatting sqref="S43:Y43">
+    <cfRule type="expression" dxfId="21" priority="17">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="18">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z52">
+    <cfRule type="expression" dxfId="19" priority="55">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="56">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z38 Z43:Z50">
+    <cfRule type="expression" dxfId="17" priority="57">
+      <formula>$C41="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="58">
+      <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z51 Z39:Z42">
+    <cfRule type="expression" dxfId="15" priority="59">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="60">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:E54 A32:E42">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$C32="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>$D32="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="58">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O55:Q65">
-    <cfRule type="expression" dxfId="51" priority="53">
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C43="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D43="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>$C55="x"</formula>
+  <conditionalFormatting sqref="O45:Q54 K45:M54 G45:I54 G32:I42 K32:M42 O32:Q42 O7:Q27 K7:M27">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$D55="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E25">
-    <cfRule type="expression" dxfId="47" priority="49">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="G65:I65 K65:M65 O65:Q65">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C65="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:M65">
-    <cfRule type="expression" dxfId="45" priority="45">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:AE53">
-    <cfRule type="expression" dxfId="43" priority="37">
-      <formula>$C53="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
-      <formula>$D53="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:AG34 A41:Y41 AA35:AG52 B34 A34:A36 C34:F36 A28:AG28 A27:F27 J27 N27 R27:AG27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A42:R52">
-    <cfRule type="expression" dxfId="41" priority="35">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$C34="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$D34="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O29:O30">
-    <cfRule type="expression" dxfId="37" priority="31">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P29:Q30">
-    <cfRule type="expression" dxfId="35" priority="29">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O31:O40">
-    <cfRule type="expression" dxfId="33" priority="27">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q40">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="29" priority="23">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:M30">
-    <cfRule type="expression" dxfId="27" priority="21">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K40">
-    <cfRule type="expression" dxfId="25" priority="19">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31:M40">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G30">
-    <cfRule type="expression" dxfId="21" priority="15">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I30">
-    <cfRule type="expression" dxfId="19" priority="13">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G40">
-    <cfRule type="expression" dxfId="17" priority="11">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I40">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:Y39">
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S42:Y51">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$C42="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>$D42="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S52:Y52">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>$C52="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>$D52="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S40:Y40">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$C40="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$D40="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="5" priority="39">
-      <formula>$C53="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="40">
-      <formula>$D53="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="3" priority="41">
-      <formula>$C38="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
-      <formula>$D38="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="1" priority="43">
-      <formula>$C40="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
-      <formula>$D40="x"</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D65="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{482B0EC0-02CE-4334-BE6E-8AA5B58C3E7D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D28 C45:D55 C32:D43" xr:uid="{482B0EC0-02CE-4334-BE6E-8AA5B58C3E7D}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I55:I65 I42:I52 I29:I39 I40 I7:I25 M7:M25 M29:M40 M42:M52 M55:M65 Q55:Q64 Q65 Q42:Q52 Q29:Q40 Q7:Q25 U7:U25 Y7:Y25 Y29:Y40 U29:U40 U42:U52 Y42:Y52 U55:U65 Y55:Y65" xr:uid="{589383A5-A6CC-446C-89FE-DCF77BB1D015}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I45:I55 I32:I43 I7:I28 M7:M28 M32:M43 M45:M55 Q45:Q55 Q32:Q43 Q7:Q28 U7:U28 Y7:Y28 Y32:Y43 U32:U43 U45:U55 Y45:Y55 I58:I65 U58:U65 Y58:Y65 Q58:Q65 M58:M65" xr:uid="{589383A5-A6CC-446C-89FE-DCF77BB1D015}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636BC84D-19F2-46F7-842F-5460DBBF3362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD5E89-574E-4619-9560-4CA804DE5078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -1667,45 +1667,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1731,6 +1692,45 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -2989,8 +2989,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,32 +3051,32 @@
         <v>24</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="O4" s="106" t="s">
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="O4" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="S4" s="103" t="s">
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="S4" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="104"/>
-      <c r="U4" s="105"/>
-      <c r="W4" s="103" t="s">
+      <c r="T4" s="122"/>
+      <c r="U4" s="123"/>
+      <c r="W4" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="105"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="123"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3816,33 +3816,33 @@
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
       <c r="E30" s="93"/>
-      <c r="G30" s="116" t="s">
+      <c r="G30" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="117"/>
-      <c r="I30" s="118"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="116" t="s">
+      <c r="K30" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="117"/>
-      <c r="M30" s="118"/>
-      <c r="O30" s="119" t="s">
+      <c r="L30" s="104"/>
+      <c r="M30" s="105"/>
+      <c r="O30" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="121"/>
-      <c r="S30" s="122" t="s">
+      <c r="P30" s="107"/>
+      <c r="Q30" s="108"/>
+      <c r="S30" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="T30" s="123"/>
-      <c r="U30" s="124"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="111"/>
       <c r="V30" s="70"/>
-      <c r="W30" s="122" t="s">
+      <c r="W30" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="124"/>
+      <c r="X30" s="110"/>
+      <c r="Y30" s="111"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="94" t="s">
@@ -4613,9 +4613,9 @@
       <c r="A58" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="109"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="120"/>
       <c r="E58" s="25"/>
       <c r="G58" s="44"/>
       <c r="H58" s="4"/>
@@ -4638,11 +4638,11 @@
       <c r="A59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="110" t="s">
+      <c r="B59" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="111"/>
-      <c r="D59" s="112"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="114"/>
       <c r="E59" s="26"/>
       <c r="G59" s="44"/>
       <c r="H59" s="4"/>
@@ -4665,11 +4665,11 @@
       <c r="A60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="110" t="s">
+      <c r="B60" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="111"/>
-      <c r="D60" s="112"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="114"/>
       <c r="E60" s="26"/>
       <c r="G60" s="44"/>
       <c r="H60" s="4"/>
@@ -4719,11 +4719,11 @@
       <c r="A62" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="110" t="s">
+      <c r="B62" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="111"/>
-      <c r="D62" s="112"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="114"/>
       <c r="E62" s="26"/>
       <c r="G62" s="44"/>
       <c r="H62" s="4"/>
@@ -4767,9 +4767,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
-      <c r="B64" s="110"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="112"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="114"/>
       <c r="E64" s="26"/>
       <c r="G64" s="44"/>
       <c r="H64" s="4"/>
@@ -4790,9 +4790,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="115"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="117"/>
       <c r="E65" s="27"/>
       <c r="G65" s="46"/>
       <c r="H65" s="47"/>
@@ -4824,22 +4824,22 @@
     <protectedRange sqref="A45:I54 A32:F42 A43 D43:F43 A55 D55:I55 K45:M55 O45:Q55 G65:I65 K65:M65 O65:Q65" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="16">
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="B64:D64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A29:I29 F10:I28 K28:M29 G7:I27 O28:Q29 S10:AG29 O58:Q64 K58:M64 G58:I64">
@@ -5057,12 +5057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -5271,6 +5265,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5281,23 +5281,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5316,6 +5299,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Pipedrive_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BD5E89-574E-4619-9560-4CA804DE5078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C6A377-6D33-49A6-AEAD-FA8E7A8871AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1667,6 +1667,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1675,6 +1696,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1692,45 +1731,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -2989,8 +2989,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y58" activeCellId="19" sqref="I7:I28 M7:M28 Q7:Q28 U7:U28 Y7:Y28 I32:I43 M32:M43 Q32:Q43 U32:U43 Y32:Y43 Y45:Y55 U45:U55 Q45:Q55 M45:M55 I45:I55 I58:I65 M58:M65 Q58:Q65 U58:U65 Y58:Y65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,32 +3051,32 @@
         <v>24</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="O4" s="124" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="O4" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="S4" s="121" t="s">
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="S4" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="122"/>
-      <c r="U4" s="123"/>
-      <c r="W4" s="121" t="s">
+      <c r="T4" s="104"/>
+      <c r="U4" s="105"/>
+      <c r="W4" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="123"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="105"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3816,33 +3816,33 @@
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
       <c r="E30" s="93"/>
-      <c r="G30" s="103" t="s">
+      <c r="G30" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="112"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="103" t="s">
+      <c r="K30" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
-      <c r="O30" s="106" t="s">
+      <c r="L30" s="111"/>
+      <c r="M30" s="112"/>
+      <c r="O30" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="108"/>
-      <c r="S30" s="109" t="s">
+      <c r="P30" s="120"/>
+      <c r="Q30" s="121"/>
+      <c r="S30" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="T30" s="110"/>
-      <c r="U30" s="111"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="124"/>
       <c r="V30" s="70"/>
-      <c r="W30" s="109" t="s">
+      <c r="W30" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="111"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="124"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="94" t="s">
@@ -4613,9 +4613,9 @@
       <c r="A58" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="118"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="120"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="115"/>
       <c r="E58" s="25"/>
       <c r="G58" s="44"/>
       <c r="H58" s="4"/>
@@ -4638,11 +4638,11 @@
       <c r="A59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="114"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="118"/>
       <c r="E59" s="26"/>
       <c r="G59" s="44"/>
       <c r="H59" s="4"/>
@@ -4665,11 +4665,11 @@
       <c r="A60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="112" t="s">
+      <c r="B60" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="113"/>
-      <c r="D60" s="114"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="118"/>
       <c r="E60" s="26"/>
       <c r="G60" s="44"/>
       <c r="H60" s="4"/>
@@ -4719,11 +4719,11 @@
       <c r="A62" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="112" t="s">
+      <c r="B62" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="113"/>
-      <c r="D62" s="114"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="118"/>
       <c r="E62" s="26"/>
       <c r="G62" s="44"/>
       <c r="H62" s="4"/>
@@ -4767,9 +4767,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="21"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="114"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="118"/>
       <c r="E64" s="26"/>
       <c r="G64" s="44"/>
       <c r="H64" s="4"/>
@@ -4790,9 +4790,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="117"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="109"/>
       <c r="E65" s="27"/>
       <c r="G65" s="46"/>
       <c r="H65" s="47"/>
@@ -4824,22 +4824,22 @@
     <protectedRange sqref="A45:I54 A32:F42 A43 D43:F43 A55 D55:I55 K45:M55 O45:Q55 G65:I65 K65:M65 O65:Q65" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="16">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A29:I29 F10:I28 K28:M29 G7:I27 O28:Q29 S10:AG29 O58:Q64 K58:M64 G58:I64">
@@ -5046,8 +5046,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D28 C45:D55 C32:D43" xr:uid="{482B0EC0-02CE-4334-BE6E-8AA5B58C3E7D}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I45:I55 I32:I43 I7:I28 M7:M28 M32:M43 M45:M55 Q45:Q55 Q32:Q43 Q7:Q28 U7:U28 Y7:Y28 Y32:Y43 U32:U43 U45:U55 Y45:Y55 I58:I65 U58:U65 Y58:Y65 Q58:Q65 M58:M65" xr:uid="{589383A5-A6CC-446C-89FE-DCF77BB1D015}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I28 M7:M28 Q7:Q28 U7:U28 Y7:Y28 I32:I43 M32:M43 Q32:Q43 U32:U43 Y32:Y43 Y45:Y55 U45:U55 Q45:Q55 M45:M55 I45:I55 I58:I65 M58:M65 Q58:Q65 U58:U65 Y58:Y65" xr:uid="{3E6EE09D-6BDD-4DD6-BC93-3DDFA4B0F977}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5057,6 +5057,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -5265,12 +5271,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5281,6 +5281,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5299,23 +5316,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
